--- a/legendre_out/DATA/a1/a1IntegrandSplinePoints0.700000.xlsx
+++ b/legendre_out/DATA/a1/a1IntegrandSplinePoints0.700000.xlsx
@@ -386,7 +386,7 @@
         <v>3.434374559103622</v>
       </c>
       <c r="C2" t="n">
-        <v>2.437517485136734e-28</v>
+        <v>2.448065828124699e-28</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.434713025603331</v>
       </c>
       <c r="C3" t="n">
-        <v>2.420122305580247e-28</v>
+        <v>2.431861712381166e-28</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.435051492103041</v>
       </c>
       <c r="C4" t="n">
-        <v>2.400044083023305e-28</v>
+        <v>2.412269706018169e-28</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.43538995860275</v>
       </c>
       <c r="C5" t="n">
-        <v>2.377519973400299e-28</v>
+        <v>2.389603205097436e-28</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.43572842510246</v>
       </c>
       <c r="C6" t="n">
-        <v>2.352787132645538e-28</v>
+        <v>2.364175605680616e-28</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.436066891602169</v>
       </c>
       <c r="C7" t="n">
-        <v>2.326082716693361e-28</v>
+        <v>2.336300303829386e-28</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.436405358101879</v>
       </c>
       <c r="C8" t="n">
-        <v>2.297643881478068e-28</v>
+        <v>2.306290695605381e-28</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.436743824601588</v>
       </c>
       <c r="C9" t="n">
-        <v>2.267707782934068e-28</v>
+        <v>2.274460177070356e-28</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.437082291101297</v>
       </c>
       <c r="C10" t="n">
-        <v>2.236511576995664e-28</v>
+        <v>2.241122144285946e-28</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.437420757601007</v>
       </c>
       <c r="C11" t="n">
-        <v>2.204292419597149e-28</v>
+        <v>2.206589993313782e-28</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.437759224100716</v>
       </c>
       <c r="C12" t="n">
-        <v>2.171287466672946e-28</v>
+        <v>2.17117712021563e-28</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.438097690600425</v>
       </c>
       <c r="C13" t="n">
-        <v>2.13773387415735e-28</v>
+        <v>2.13519692105312e-28</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.438436157100135</v>
       </c>
       <c r="C14" t="n">
-        <v>2.103868797984653e-28</v>
+        <v>2.09896279188788e-28</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.438774623599844</v>
       </c>
       <c r="C15" t="n">
-        <v>2.069929394089282e-28</v>
+        <v>2.062788128781681e-28</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.439113090099553</v>
       </c>
       <c r="C16" t="n">
-        <v>2.036152818405528e-28</v>
+        <v>2.026986327796151e-28</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.439451556599263</v>
       </c>
       <c r="C17" t="n">
-        <v>2.00277622686773e-28</v>
+        <v>1.991870784992965e-28</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.439790023098972</v>
       </c>
       <c r="C18" t="n">
-        <v>1.970036775410181e-28</v>
+        <v>1.957754896433755e-28</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.440128489598682</v>
       </c>
       <c r="C19" t="n">
-        <v>1.938171619967306e-28</v>
+        <v>1.924952058180285e-28</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.440466956098391</v>
       </c>
       <c r="C20" t="n">
-        <v>1.907412146708537e-28</v>
+        <v>1.893766235197046e-28</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.440805422598101</v>
       </c>
       <c r="C21" t="n">
-        <v>1.877873713335759e-28</v>
+        <v>1.8643117355431e-28</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.44114388909781</v>
       </c>
       <c r="C22" t="n">
-        <v>1.849564220627096e-28</v>
+        <v>1.836527221179046e-28</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.441482355597519</v>
       </c>
       <c r="C23" t="n">
-        <v>1.822487517070283e-28</v>
+        <v>1.810344730304415e-28</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.441820822097228</v>
       </c>
       <c r="C24" t="n">
-        <v>1.796647451153096e-28</v>
+        <v>1.785696301118776e-28</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.442159288596938</v>
       </c>
       <c r="C25" t="n">
-        <v>1.772047871363278e-28</v>
+        <v>1.76251397182167e-28</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.442497755096647</v>
       </c>
       <c r="C26" t="n">
-        <v>1.748692626188668e-28</v>
+        <v>1.740729780612725e-28</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.442836221596357</v>
       </c>
       <c r="C27" t="n">
-        <v>1.72658556411701e-28</v>
+        <v>1.720275765691482e-28</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.443174688096066</v>
       </c>
       <c r="C28" t="n">
-        <v>1.705730533636051e-28</v>
+        <v>1.701083965257484e-28</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.443513154595776</v>
       </c>
       <c r="C29" t="n">
-        <v>1.686131383233622e-28</v>
+        <v>1.683086417510352e-28</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.443851621095485</v>
       </c>
       <c r="C30" t="n">
-        <v>1.667791961397469e-28</v>
+        <v>1.666215160649629e-28</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.444190087595194</v>
       </c>
       <c r="C31" t="n">
-        <v>1.650716116615367e-28</v>
+        <v>1.650402232874886e-28</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.444528554094904</v>
       </c>
       <c r="C32" t="n">
-        <v>1.634907697375072e-28</v>
+        <v>1.635579672385672e-28</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.444867020594613</v>
       </c>
       <c r="C33" t="n">
-        <v>1.620370552164399e-28</v>
+        <v>1.621679517381595e-28</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.445205487094322</v>
       </c>
       <c r="C34" t="n">
-        <v>1.607108529471104e-28</v>
+        <v>1.608633806062205e-28</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.445543953594032</v>
       </c>
       <c r="C35" t="n">
-        <v>1.595125477782945e-28</v>
+        <v>1.596374576627057e-28</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.445882420093741</v>
       </c>
       <c r="C36" t="n">
-        <v>1.5843988578582e-28</v>
+        <v>1.584823224665304e-28</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.44622088659345</v>
       </c>
       <c r="C37" t="n">
-        <v>1.57472952425701e-28</v>
+        <v>1.573829917547386e-28</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.44655935309316</v>
       </c>
       <c r="C38" t="n">
-        <v>1.565845848559289e-28</v>
+        <v>1.563215589051604e-28</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.446897819592869</v>
       </c>
       <c r="C39" t="n">
-        <v>1.557475981349325e-28</v>
+        <v>1.552801083825068e-28</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.447236286092579</v>
       </c>
       <c r="C40" t="n">
-        <v>1.549348073211371e-28</v>
+        <v>1.542407246514851e-28</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.447574752592288</v>
       </c>
       <c r="C41" t="n">
-        <v>1.541190274729692e-28</v>
+        <v>1.531854921768037e-28</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.447913219091998</v>
       </c>
       <c r="C42" t="n">
-        <v>1.532730736488541e-28</v>
+        <v>1.520964954231694e-28</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.448251685591707</v>
       </c>
       <c r="C43" t="n">
-        <v>1.523697609072204e-28</v>
+        <v>1.509558188552938e-28</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.448590152091416</v>
       </c>
       <c r="C44" t="n">
-        <v>1.513819043064935e-28</v>
+        <v>1.497455469378837e-28</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.448928618591126</v>
       </c>
       <c r="C45" t="n">
-        <v>1.502823189050986e-28</v>
+        <v>1.48447764135646e-28</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.449267085090835</v>
       </c>
       <c r="C46" t="n">
-        <v>1.490438197614647e-28</v>
+        <v>1.470445549132925e-28</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.449605551590544</v>
       </c>
       <c r="C47" t="n">
-        <v>1.47639221934017e-28</v>
+        <v>1.455180037355299e-28</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.449944018090254</v>
       </c>
       <c r="C48" t="n">
-        <v>1.46041340481182e-28</v>
+        <v>1.438501950670669e-28</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.450282484589963</v>
       </c>
       <c r="C49" t="n">
-        <v>1.442229904613837e-28</v>
+        <v>1.420232133726092e-28</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.450620951089673</v>
       </c>
       <c r="C50" t="n">
-        <v>1.421569869330532e-28</v>
+        <v>1.400191431168702e-28</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.450959417589382</v>
       </c>
       <c r="C51" t="n">
-        <v>1.398186332259603e-28</v>
+        <v>1.378215889010108e-28</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.451297884089092</v>
       </c>
       <c r="C52" t="n">
-        <v>1.372152218418604e-28</v>
+        <v>1.35433698173312e-28</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.451636350588801</v>
       </c>
       <c r="C53" t="n">
-        <v>1.343762376187102e-28</v>
+        <v>1.328721761394701e-28</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.45197481708851</v>
       </c>
       <c r="C54" t="n">
-        <v>1.313316118056236e-28</v>
+        <v>1.301540007269922e-28</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.45231328358822</v>
       </c>
       <c r="C55" t="n">
-        <v>1.281112756517136e-28</v>
+        <v>1.272961498633844e-28</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.452651750087929</v>
       </c>
       <c r="C56" t="n">
-        <v>1.247451604061058e-28</v>
+        <v>1.243156014761643e-28</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.452990216587638</v>
       </c>
       <c r="C57" t="n">
-        <v>1.212631973179135e-28</v>
+        <v>1.212293334928381e-28</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.453328683087348</v>
       </c>
       <c r="C58" t="n">
-        <v>1.176953176362536e-28</v>
+        <v>1.180543238409158e-28</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.453667149587057</v>
       </c>
       <c r="C59" t="n">
-        <v>1.140714526102388e-28</v>
+        <v>1.148075504479033e-28</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.454005616086766</v>
       </c>
       <c r="C60" t="n">
-        <v>1.104215334889956e-28</v>
+        <v>1.115059912413189e-28</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.454344082586476</v>
       </c>
       <c r="C61" t="n">
-        <v>1.067754915216368e-28</v>
+        <v>1.081666241486685e-28</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.454682549086185</v>
       </c>
       <c r="C62" t="n">
-        <v>1.031632579572747e-28</v>
+        <v>1.048064270974577e-28</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.455021015585895</v>
       </c>
       <c r="C63" t="n">
-        <v>9.961418357750709e-29</v>
+        <v>1.014421539100713e-28</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.455359482085604</v>
       </c>
       <c r="C64" t="n">
-        <v>9.614334342520783e-29</v>
+        <v>9.808504687520222e-29</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.455697948585313</v>
       </c>
       <c r="C65" t="n">
-        <v>9.275100319223054e-29</v>
+        <v>9.474063073245311e-29</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.456036415085023</v>
       </c>
       <c r="C66" t="n">
-        <v>8.94367413353765e-29</v>
+        <v>9.141416489581e-29</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.456374881584732</v>
       </c>
       <c r="C67" t="n">
-        <v>8.620013631145971e-29</v>
+        <v>8.811090877927186e-29</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.456713348084441</v>
       </c>
       <c r="C68" t="n">
-        <v>8.304076657728127e-29</v>
+        <v>8.483612179682479e-29</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.457051814584151</v>
       </c>
       <c r="C69" t="n">
-        <v>7.995821058964261e-29</v>
+        <v>8.159506336245483e-29</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.45739028108386</v>
       </c>
       <c r="C70" t="n">
-        <v>7.695204680535725e-29</v>
+        <v>7.839299289016085e-29</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.45772874758357</v>
       </c>
       <c r="C71" t="n">
-        <v>7.402185368122655e-29</v>
+        <v>7.523516979392895e-29</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.458067214083279</v>
       </c>
       <c r="C72" t="n">
-        <v>7.116720967405224e-29</v>
+        <v>7.212685348774545e-29</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.458405680582989</v>
       </c>
       <c r="C73" t="n">
-        <v>6.838769324064724e-29</v>
+        <v>6.907330338560882e-29</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.458744147082698</v>
       </c>
       <c r="C74" t="n">
-        <v>6.568288283781321e-29</v>
+        <v>6.607977890150533e-29</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.459082613582407</v>
       </c>
       <c r="C75" t="n">
-        <v>6.305235692235558e-29</v>
+        <v>6.315153944942532e-29</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.459421080082117</v>
       </c>
       <c r="C76" t="n">
-        <v>6.049569395107644e-29</v>
+        <v>6.029384444335541e-29</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.459759546581826</v>
       </c>
       <c r="C77" t="n">
-        <v>5.801247238078801e-29</v>
+        <v>5.75119532972935e-29</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.460098013081535</v>
       </c>
       <c r="C78" t="n">
-        <v>5.560227066829225e-29</v>
+        <v>5.481112542522611e-29</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.460436479581245</v>
       </c>
       <c r="C79" t="n">
-        <v>5.326466727039165e-29</v>
+        <v>5.219662024114027e-29</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.460774946080954</v>
       </c>
       <c r="C80" t="n">
-        <v>5.099924064389773e-29</v>
+        <v>4.967369715903315e-29</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.461113412580664</v>
       </c>
       <c r="C81" t="n">
-        <v>4.88055692456128e-29</v>
+        <v>4.724761559289161e-29</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.461451879080373</v>
       </c>
       <c r="C82" t="n">
-        <v>4.668323153234235e-29</v>
+        <v>4.492363495670602e-29</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.461790345580082</v>
       </c>
       <c r="C83" t="n">
-        <v>4.463180596088914e-29</v>
+        <v>4.270701466446389e-29</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.462128812079792</v>
       </c>
       <c r="C84" t="n">
-        <v>4.265087098806398e-29</v>
+        <v>4.060301413016139e-29</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.462467278579501</v>
       </c>
       <c r="C85" t="n">
-        <v>4.074000507066959e-29</v>
+        <v>3.86168927677859e-29</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.462805745079211</v>
       </c>
       <c r="C86" t="n">
-        <v>3.889878666550903e-29</v>
+        <v>3.675390999132538e-29</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.46314421157892</v>
       </c>
       <c r="C87" t="n">
-        <v>3.712679422939257e-29</v>
+        <v>3.501932521477512e-29</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.463482678078629</v>
       </c>
       <c r="C88" t="n">
-        <v>3.542360621912317e-29</v>
+        <v>3.341839785212291e-29</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.463821144578338</v>
       </c>
       <c r="C89" t="n">
-        <v>3.379079200066201e-29</v>
+        <v>3.195548220158015e-29</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.464159611078048</v>
       </c>
       <c r="C90" t="n">
-        <v>3.224026996996038e-29</v>
+        <v>3.063022764033306e-29</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.464498077577757</v>
       </c>
       <c r="C91" t="n">
-        <v>3.078731067138998e-29</v>
+        <v>2.944075957728216e-29</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.464836544077467</v>
       </c>
       <c r="C92" t="n">
-        <v>2.944718636913851e-29</v>
+        <v>2.838520263944959e-29</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.465175010577176</v>
       </c>
       <c r="C93" t="n">
-        <v>2.823516932739431e-29</v>
+        <v>2.746168145385825e-29</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.465513477076886</v>
       </c>
       <c r="C94" t="n">
-        <v>2.716653181035035e-29</v>
+        <v>2.666832064753454e-29</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.465851943576595</v>
       </c>
       <c r="C95" t="n">
-        <v>2.625654608219477e-29</v>
+        <v>2.600324484750116e-29</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.466190410076305</v>
       </c>
       <c r="C96" t="n">
-        <v>2.552048440711654e-29</v>
+        <v>2.54645786807815e-29</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.466528876576014</v>
       </c>
       <c r="C97" t="n">
-        <v>2.497361904930739e-29</v>
+        <v>2.505044677440095e-29</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.466867343075723</v>
       </c>
       <c r="C98" t="n">
-        <v>2.463122227295607e-29</v>
+        <v>2.475897375538272e-29</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.467205809575432</v>
       </c>
       <c r="C99" t="n">
-        <v>2.450856634225236e-29</v>
+        <v>2.458828425075082e-29</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.467544276075142</v>
       </c>
       <c r="C100" t="n">
-        <v>2.462092352138639e-29</v>
+        <v>2.453650288752924e-29</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.467882742574851</v>
       </c>
       <c r="C101" t="n">
-        <v>2.498356607454769e-29</v>
+        <v>2.460175429274211e-29</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.686414373908955</v>
       </c>
       <c r="C102" t="n">
-        <v>5.178099248978839e-30</v>
+        <v>5.128609372647116e-30</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.687400208962555</v>
       </c>
       <c r="C103" t="n">
-        <v>6.853104503651555e-30</v>
+        <v>6.840276331109737e-30</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.688386044016154</v>
       </c>
       <c r="C104" t="n">
-        <v>6.503003638552781e-30</v>
+        <v>6.431345197495818e-30</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.689371879069753</v>
       </c>
       <c r="C105" t="n">
-        <v>6.344657689483898e-30</v>
+        <v>6.316491683884392e-30</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.690357714123353</v>
       </c>
       <c r="C106" t="n">
-        <v>6.24902375725782e-30</v>
+        <v>6.283756981768451e-30</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.691343549176952</v>
       </c>
       <c r="C107" t="n">
-        <v>6.138038625312896e-30</v>
+        <v>6.178611229023485e-30</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.692329384230551</v>
       </c>
       <c r="C108" t="n">
-        <v>6.555521067533809e-30</v>
+        <v>6.547078698943372e-30</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.693315219284151</v>
       </c>
       <c r="C109" t="n">
-        <v>8.460727055137069e-30</v>
+        <v>8.403191238872882e-30</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.69430105433775</v>
       </c>
       <c r="C110" t="n">
-        <v>1.145414578496793e-29</v>
+        <v>1.140817297021489e-29</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.695286889391349</v>
       </c>
       <c r="C111" t="n">
-        <v>1.254629247195656e-29</v>
+        <v>1.259119136836079e-29</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.696272724444948</v>
       </c>
       <c r="C112" t="n">
-        <v>1.292009687627526e-29</v>
+        <v>1.30162886848309e-29</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.697258559498548</v>
       </c>
       <c r="C113" t="n">
-        <v>1.325119478307986e-29</v>
+        <v>1.328807020015898e-29</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.698244394552147</v>
       </c>
       <c r="C114" t="n">
-        <v>1.281595365625422e-29</v>
+        <v>1.27100969542593e-29</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.699230229605746</v>
       </c>
       <c r="C115" t="n">
-        <v>1.184581075337958e-29</v>
+        <v>1.172417197966373e-29</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.700216064659346</v>
       </c>
       <c r="C116" t="n">
-        <v>1.108447498074239e-29</v>
+        <v>1.128040131875953e-29</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.701201899712945</v>
       </c>
       <c r="C117" t="n">
-        <v>1.067729386680354e-29</v>
+        <v>1.108990645094815e-29</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.702187734766544</v>
       </c>
       <c r="C118" t="n">
-        <v>1.055247182223714e-29</v>
+        <v>1.075006457454e-29</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.703173569820144</v>
       </c>
       <c r="C119" t="n">
-        <v>1.063569103890898e-29</v>
+        <v>1.074590966893543e-29</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.704159404873743</v>
       </c>
       <c r="C120" t="n">
-        <v>1.028513512023467e-29</v>
+        <v>1.031683348543132e-29</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.705145239927342</v>
       </c>
       <c r="C121" t="n">
-        <v>9.707466185352081e-30</v>
+        <v>9.634886762771531e-30</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.706131074980942</v>
       </c>
       <c r="C122" t="n">
-        <v>9.282234747406617e-30</v>
+        <v>9.267873641399759e-30</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.707116910034541</v>
       </c>
       <c r="C123" t="n">
-        <v>8.803810809259052e-30</v>
+        <v>8.816961435515199e-30</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.70810274508814</v>
       </c>
       <c r="C124" t="n">
-        <v>8.333411814223006e-30</v>
+        <v>8.355351852255542e-30</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.709088580141739</v>
       </c>
       <c r="C125" t="n">
-        <v>7.946387765594182e-30</v>
+        <v>7.994549124896414e-30</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.710074415195339</v>
       </c>
       <c r="C126" t="n">
-        <v>7.617309422524103e-30</v>
+        <v>7.693025666689139e-30</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.711060250248938</v>
       </c>
       <c r="C127" t="n">
-        <v>7.309829861942006e-30</v>
+        <v>7.392675548835781e-30</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.712046085302537</v>
       </c>
       <c r="C128" t="n">
-        <v>6.988769185128588e-30</v>
+        <v>7.03983722918972e-30</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.713031920356137</v>
       </c>
       <c r="C129" t="n">
-        <v>6.630854928637794e-30</v>
+        <v>6.626196331085963e-30</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.714017755409736</v>
       </c>
       <c r="C130" t="n">
-        <v>6.219775972166017e-30</v>
+        <v>6.169949407559512e-30</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.715003590463335</v>
       </c>
       <c r="C131" t="n">
-        <v>5.740004636210662e-30</v>
+        <v>5.689543684988988e-30</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.715989425516934</v>
       </c>
       <c r="C132" t="n">
-        <v>5.203063316260572e-30</v>
+        <v>5.200210437993653e-30</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.716975260570534</v>
       </c>
       <c r="C133" t="n">
-        <v>4.655611802905391e-30</v>
+        <v>4.713003497409594e-30</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.717961095624133</v>
       </c>
       <c r="C134" t="n">
-        <v>4.146658016141237e-30</v>
+        <v>4.238697527716481e-30</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.718946930677732</v>
       </c>
       <c r="C135" t="n">
-        <v>3.719460295333991e-30</v>
+        <v>3.790474219195458e-30</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.719932765731332</v>
       </c>
       <c r="C136" t="n">
-        <v>3.379359175040361e-30</v>
+        <v>3.397389312848615e-30</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.720918600784931</v>
       </c>
       <c r="C137" t="n">
-        <v>3.116320022258773e-30</v>
+        <v>3.094774081284352e-30</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.72190443583853</v>
       </c>
       <c r="C138" t="n">
-        <v>2.91739473478987e-30</v>
+        <v>2.89463655849865e-30</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.722890270892129</v>
       </c>
       <c r="C139" t="n">
-        <v>2.763712355645808e-30</v>
+        <v>2.76081396585818e-30</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.723876105945729</v>
       </c>
       <c r="C140" t="n">
-        <v>2.636108756576668e-30</v>
+        <v>2.652260154008156e-30</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.724861940999328</v>
       </c>
       <c r="C141" t="n">
-        <v>2.524097042942039e-30</v>
+        <v>2.549072697308517e-30</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.725847776052927</v>
       </c>
       <c r="C142" t="n">
-        <v>2.425148401404566e-30</v>
+        <v>2.450740542986162e-30</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.726833611106527</v>
       </c>
       <c r="C143" t="n">
-        <v>2.337028552084719e-30</v>
+        <v>2.357470324841481e-30</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.727819446160126</v>
       </c>
       <c r="C144" t="n">
-        <v>2.257503215103084e-30</v>
+        <v>2.269468676674988e-30</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.728805281213725</v>
       </c>
       <c r="C145" t="n">
-        <v>2.184338110580127e-30</v>
+        <v>2.186942232287072e-30</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.729791116267324</v>
       </c>
       <c r="C146" t="n">
-        <v>2.115381929895284e-30</v>
+        <v>2.110070655420339e-30</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.730776951320924</v>
       </c>
       <c r="C147" t="n">
-        <v>2.049623195890484e-30</v>
+        <v>2.038663104164561e-30</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.731762786374523</v>
       </c>
       <c r="C148" t="n">
-        <v>1.986878623481773e-30</v>
+        <v>1.972259530279434e-30</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.732748621428122</v>
       </c>
       <c r="C149" t="n">
-        <v>1.926983571009071e-30</v>
+        <v>1.9103938254234e-30</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.733734456481722</v>
       </c>
       <c r="C150" t="n">
-        <v>1.869773396812304e-30</v>
+        <v>1.852599881254909e-30</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.734720291535321</v>
       </c>
       <c r="C151" t="n">
-        <v>1.815083459231472e-30</v>
+        <v>1.798411589432487e-30</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.73570612658892</v>
       </c>
       <c r="C152" t="n">
-        <v>1.762749116606502e-30</v>
+        <v>1.747362841614583e-30</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.736691961642519</v>
       </c>
       <c r="C153" t="n">
-        <v>1.712605727277343e-30</v>
+        <v>1.69898752945967e-30</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.737677796696119</v>
       </c>
       <c r="C154" t="n">
-        <v>1.664488649583922e-30</v>
+        <v>1.652819544626204e-30</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.738663631749718</v>
       </c>
       <c r="C155" t="n">
-        <v>1.618249251180654e-30</v>
+        <v>1.608449632679357e-30</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.739649466803317</v>
       </c>
       <c r="C156" t="n">
-        <v>1.573818209873002e-30</v>
+        <v>1.565750193464415e-30</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.740635301856917</v>
       </c>
       <c r="C157" t="n">
-        <v>1.531150718309984e-30</v>
+        <v>1.524680686433999e-30</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.741621136910516</v>
       </c>
       <c r="C158" t="n">
-        <v>1.490201976317548e-30</v>
+        <v>1.485200596528024e-30</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.742606971964115</v>
       </c>
       <c r="C159" t="n">
-        <v>1.450927183721584e-30</v>
+        <v>1.447269408686351e-30</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.743592807017714</v>
       </c>
       <c r="C160" t="n">
-        <v>1.413281540348001e-30</v>
+        <v>1.410846607848861e-30</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.744578642071314</v>
       </c>
       <c r="C161" t="n">
-        <v>1.377220246022694e-30</v>
+        <v>1.375891678955417e-30</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.745564477124913</v>
       </c>
       <c r="C162" t="n">
-        <v>1.342698500571603e-30</v>
+        <v>1.342364106945929e-30</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.746550312178512</v>
       </c>
       <c r="C163" t="n">
-        <v>1.309671503820623e-30</v>
+        <v>1.310223376760263e-30</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.747536147232112</v>
       </c>
       <c r="C164" t="n">
-        <v>1.278094455595649e-30</v>
+        <v>1.279428973338282e-30</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.748521982285711</v>
       </c>
       <c r="C165" t="n">
-        <v>1.247922555722619e-30</v>
+        <v>1.249940381619896e-30</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.74950781733931</v>
       </c>
       <c r="C166" t="n">
-        <v>1.219111004027427e-30</v>
+        <v>1.221717086544969e-30</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.75049365239291</v>
       </c>
       <c r="C167" t="n">
-        <v>1.191615000335984e-30</v>
+        <v>1.194718573053381e-30</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.751479487446509</v>
       </c>
       <c r="C168" t="n">
-        <v>1.165389744474187e-30</v>
+        <v>1.168904326084999e-30</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.752465322500108</v>
       </c>
       <c r="C169" t="n">
-        <v>1.140390436267969e-30</v>
+        <v>1.144233830579728e-30</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.753451157553708</v>
       </c>
       <c r="C170" t="n">
-        <v>1.116572275543229e-30</v>
+        <v>1.120666571477433e-30</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.754436992607307</v>
       </c>
       <c r="C171" t="n">
-        <v>1.093890462125865e-30</v>
+        <v>1.098162033717986e-30</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.755422827660906</v>
       </c>
       <c r="C172" t="n">
-        <v>1.072300195841808e-30</v>
+        <v>1.076679702241286e-30</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.756408662714505</v>
       </c>
       <c r="C173" t="n">
-        <v>1.051756676516955e-30</v>
+        <v>1.056179061987201e-30</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.757394497768105</v>
       </c>
       <c r="C174" t="n">
-        <v>1.032215103977219e-30</v>
+        <v>1.036619597895612e-30</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.758380332821704</v>
       </c>
       <c r="C175" t="n">
-        <v>1.013630678048499e-30</v>
+        <v>1.017960794906389e-30</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.759366167875303</v>
       </c>
       <c r="C176" t="n">
-        <v>9.959585985567211e-31</v>
+        <v>1.000162137959431e-30</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.760352002928903</v>
       </c>
       <c r="C177" t="n">
-        <v>9.791540653277876e-31</v>
+        <v>9.831831119946063e-31</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.761337837982502</v>
       </c>
       <c r="C178" t="n">
-        <v>9.631722781876005e-31</v>
+        <v>9.669832019517882e-31</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.762323673036101</v>
       </c>
       <c r="C179" t="n">
-        <v>9.479684369620831e-31</v>
+        <v>9.515218927708704e-31</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.763309508089701</v>
       </c>
       <c r="C180" t="n">
-        <v>9.334977414771385e-31</v>
+        <v>9.367586693917256e-31</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.7642953431433</v>
       </c>
       <c r="C181" t="n">
-        <v>9.197153915586755e-31</v>
+        <v>9.226530167542331e-31</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.765281178196899</v>
       </c>
       <c r="C182" t="n">
-        <v>9.065765870325985e-31</v>
+        <v>9.091644197982664e-31</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.766267013250499</v>
       </c>
       <c r="C183" t="n">
-        <v>8.940365277248284e-31</v>
+        <v>8.962523634637174e-31</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.767252848304098</v>
       </c>
       <c r="C184" t="n">
-        <v>8.820504134612691e-31</v>
+        <v>8.838763326904595e-31</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.768238683357697</v>
       </c>
       <c r="C185" t="n">
-        <v>8.705734440678297e-31</v>
+        <v>8.719958124183719e-31</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.769224518411296</v>
       </c>
       <c r="C186" t="n">
-        <v>8.595608193704152e-31</v>
+        <v>8.605702875873292e-31</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.770210353464896</v>
       </c>
       <c r="C187" t="n">
-        <v>8.489677391949448e-31</v>
+        <v>8.495592431372212e-31</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.771196188518495</v>
       </c>
       <c r="C188" t="n">
-        <v>8.387494033673236e-31</v>
+        <v>8.389221640079225e-31</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.772182023572094</v>
       </c>
       <c r="C189" t="n">
-        <v>8.288610130399255e-31</v>
+        <v>8.286185363517633e-31</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.773167858625694</v>
       </c>
       <c r="C190" t="n">
-        <v>8.192625088905812e-31</v>
+        <v>8.186121784697454e-31</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.774153693679293</v>
       </c>
       <c r="C191" t="n">
-        <v>8.099292162630586e-31</v>
+        <v>8.088809709694652e-31</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.775139528732892</v>
       </c>
       <c r="C192" t="n">
-        <v>8.008395766525238e-31</v>
+        <v>7.994056427671236e-31</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.776125363786492</v>
       </c>
       <c r="C193" t="n">
-        <v>7.919720315541556e-31</v>
+        <v>7.901669227789346e-31</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.777111198840091</v>
       </c>
       <c r="C194" t="n">
-        <v>7.833050224631212e-31</v>
+        <v>7.811455399210996e-31</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.77809703389369</v>
       </c>
       <c r="C195" t="n">
-        <v>7.748169908745909e-31</v>
+        <v>7.723222231098236e-31</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.77908286894729</v>
       </c>
       <c r="C196" t="n">
-        <v>7.664863782837319e-31</v>
+        <v>7.636777012613085e-31</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.780068704000889</v>
       </c>
       <c r="C197" t="n">
-        <v>7.582916261857221e-31</v>
+        <v>7.551927032917671e-31</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.781054539054488</v>
       </c>
       <c r="C198" t="n">
-        <v>7.502111760757289e-31</v>
+        <v>7.468479581174013e-31</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.782040374108087</v>
       </c>
       <c r="C199" t="n">
-        <v>7.422234694489228e-31</v>
+        <v>7.386241946544164e-31</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.783026209161687</v>
       </c>
       <c r="C200" t="n">
-        <v>7.343069478004708e-31</v>
+        <v>7.305021418190141e-31</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.784012044215286</v>
       </c>
       <c r="C201" t="n">
-        <v>7.264400526255509e-31</v>
+        <v>7.224625285274071e-31</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.784997879268885</v>
       </c>
       <c r="C202" t="n">
-        <v>7.186012254193304e-31</v>
+        <v>7.144860836957972e-31</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.785983714322485</v>
       </c>
       <c r="C203" t="n">
-        <v>7.107689076769762e-31</v>
+        <v>7.065535362403862e-31</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.786969549376084</v>
       </c>
       <c r="C204" t="n">
-        <v>7.029215408936663e-31</v>
+        <v>6.986456150773867e-31</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.787955384429683</v>
       </c>
       <c r="C205" t="n">
-        <v>6.950375665645678e-31</v>
+        <v>6.907430491230005e-31</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.788941219483282</v>
       </c>
       <c r="C206" t="n">
-        <v>6.870954261848514e-31</v>
+        <v>6.828265672934331e-31</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.789927054536882</v>
       </c>
       <c r="C207" t="n">
-        <v>6.790735612496843e-31</v>
+        <v>6.748768985048862e-31</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.790912889590481</v>
       </c>
       <c r="C208" t="n">
-        <v>6.709504132542442e-31</v>
+        <v>6.668747716735725e-31</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.79189872464408</v>
       </c>
       <c r="C209" t="n">
-        <v>6.627044236936987e-31</v>
+        <v>6.588009157156937e-31</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.79288455969768</v>
       </c>
       <c r="C210" t="n">
-        <v>6.543140340632142e-31</v>
+        <v>6.506360595474517e-31</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.793870394751279</v>
       </c>
       <c r="C211" t="n">
-        <v>6.457576858579693e-31</v>
+        <v>6.423609320850589e-31</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.794856229804878</v>
       </c>
       <c r="C212" t="n">
-        <v>6.370138205731308e-31</v>
+        <v>6.339562622447176e-31</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.795842064858477</v>
       </c>
       <c r="C213" t="n">
-        <v>6.280608797038692e-31</v>
+        <v>6.254027789426327e-31</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.796827899912077</v>
       </c>
       <c r="C214" t="n">
-        <v>6.188773047453518e-31</v>
+        <v>6.166812110950061e-31</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.797813734965676</v>
       </c>
       <c r="C215" t="n">
-        <v>6.094415371927568e-31</v>
+        <v>6.077722876180506e-31</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.798799570019275</v>
       </c>
       <c r="C216" t="n">
-        <v>5.997363917756012e-31</v>
+        <v>5.986592517033861e-31</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.799785405072875</v>
       </c>
       <c r="C217" t="n">
-        <v>5.897680488416488e-31</v>
+        <v>5.893387799868257e-31</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.800771240126474</v>
       </c>
       <c r="C218" t="n">
-        <v>5.795504602898542e-31</v>
+        <v>5.798120171519881e-31</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.801757075180073</v>
       </c>
       <c r="C219" t="n">
-        <v>5.690975832528499e-31</v>
+        <v>5.700801108914518e-31</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.802742910233672</v>
       </c>
       <c r="C220" t="n">
-        <v>5.584233748632717e-31</v>
+        <v>5.601442088977988e-31</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.803728745287272</v>
       </c>
       <c r="C221" t="n">
-        <v>5.475417922537514e-31</v>
+        <v>5.50005458863607e-31</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.804714580340871</v>
       </c>
       <c r="C222" t="n">
-        <v>5.364667925569355e-31</v>
+        <v>5.39665008481468e-31</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.80570041539447</v>
       </c>
       <c r="C223" t="n">
-        <v>5.252123329054547e-31</v>
+        <v>5.291240054439595e-31</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.80668625044807</v>
       </c>
       <c r="C224" t="n">
-        <v>5.137923704319411e-31</v>
+        <v>5.18383597443659e-31</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.807672085501669</v>
       </c>
       <c r="C225" t="n">
-        <v>5.022208622690407e-31</v>
+        <v>5.074449321731584e-31</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.808657920555268</v>
       </c>
       <c r="C226" t="n">
-        <v>4.905117655493852e-31</v>
+        <v>4.963091573250356e-31</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.809643755608867</v>
       </c>
       <c r="C227" t="n">
-        <v>4.786790374056109e-31</v>
+        <v>4.849774205918726e-31</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.810629590662467</v>
       </c>
       <c r="C228" t="n">
-        <v>4.667366349703489e-31</v>
+        <v>4.734508696662467e-31</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.811615425716066</v>
       </c>
       <c r="C229" t="n">
-        <v>4.54698515376246e-31</v>
+        <v>4.617306522407504e-31</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.812601260769665</v>
       </c>
       <c r="C230" t="n">
-        <v>4.425786357559337e-31</v>
+        <v>4.498179160079614e-31</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.813587095823265</v>
       </c>
       <c r="C231" t="n">
-        <v>4.303909532420427e-31</v>
+        <v>4.377138086604561e-31</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.814572930876864</v>
       </c>
       <c r="C232" t="n">
-        <v>4.181494249672203e-31</v>
+        <v>4.25419477890828e-31</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.815558765930463</v>
       </c>
       <c r="C233" t="n">
-        <v>4.058675111066081e-31</v>
+        <v>4.129378068747951e-31</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.816544600984062</v>
       </c>
       <c r="C234" t="n">
-        <v>3.935533928552597e-31</v>
+        <v>4.002901141294312e-31</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.817530436037662</v>
       </c>
       <c r="C235" t="n">
-        <v>3.812120681423279e-31</v>
+        <v>3.875088348254662e-31</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.818516271091261</v>
       </c>
       <c r="C236" t="n">
-        <v>3.688484910002937e-31</v>
+        <v>3.746265574303875e-31</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.81950210614486</v>
       </c>
       <c r="C237" t="n">
-        <v>3.564676154616214e-31</v>
+        <v>3.616758704116652e-31</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.82048794119846</v>
       </c>
       <c r="C238" t="n">
-        <v>3.440743955587808e-31</v>
+        <v>3.48689362236775e-31</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.821473776252059</v>
       </c>
       <c r="C239" t="n">
-        <v>3.31673785324236e-31</v>
+        <v>3.356996213731869e-31</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.822459611305658</v>
       </c>
       <c r="C240" t="n">
-        <v>3.192707387904682e-31</v>
+        <v>3.227392362883883e-31</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.823445446359258</v>
       </c>
       <c r="C241" t="n">
-        <v>3.068702099899415e-31</v>
+        <v>3.098407954498492e-31</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.824431281412857</v>
       </c>
       <c r="C242" t="n">
-        <v>2.944771529551202e-31</v>
+        <v>2.970368873250395e-31</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.825417116466456</v>
       </c>
       <c r="C243" t="n">
-        <v>2.820965217184853e-31</v>
+        <v>2.843601003814468e-31</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.826402951520055</v>
       </c>
       <c r="C244" t="n">
-        <v>2.697332703125011e-31</v>
+        <v>2.718430230865409e-31</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.827388786573655</v>
       </c>
       <c r="C245" t="n">
-        <v>2.573923527696316e-31</v>
+        <v>2.59518243907792e-31</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.828374621627254</v>
       </c>
       <c r="C246" t="n">
-        <v>2.450857590845339e-31</v>
+        <v>2.474226488161869e-31</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.829360456680853</v>
       </c>
       <c r="C247" t="n">
-        <v>2.329116672574064e-31</v>
+        <v>2.356457666545955e-31</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.830346291734453</v>
       </c>
       <c r="C248" t="n">
-        <v>2.210260210857238e-31</v>
+        <v>2.243124091042217e-31</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.831332126788052</v>
       </c>
       <c r="C249" t="n">
-        <v>2.095858290278799e-31</v>
+        <v>2.135480381317454e-31</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.832317961841651</v>
       </c>
       <c r="C250" t="n">
-        <v>1.987480995422838e-31</v>
+        <v>2.034781157038609e-31</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.833303796895251</v>
       </c>
       <c r="C251" t="n">
-        <v>1.886698410873289e-31</v>
+        <v>1.942281037872477e-31</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.83428963194885</v>
       </c>
       <c r="C252" t="n">
-        <v>1.79508062121414e-31</v>
+        <v>1.859234643485907e-31</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.835275467002449</v>
       </c>
       <c r="C253" t="n">
-        <v>1.714197711029344e-31</v>
+        <v>1.786896593545712e-31</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.836261302056049</v>
       </c>
       <c r="C254" t="n">
-        <v>1.645619764902963e-31</v>
+        <v>1.726521507718806e-31</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.837247137109648</v>
       </c>
       <c r="C255" t="n">
-        <v>1.590916867418945e-31</v>
+        <v>1.679364005672e-31</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.838232972163247</v>
       </c>
       <c r="C256" t="n">
-        <v>1.551659103161262e-31</v>
+        <v>1.646678707072127e-31</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.839218807216846</v>
       </c>
       <c r="C257" t="n">
-        <v>1.529416556713938e-31</v>
+        <v>1.629720231586064e-31</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.840204642270446</v>
       </c>
       <c r="C258" t="n">
-        <v>1.52575931266094e-31</v>
+        <v>1.629743198880639e-31</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.841190477324045</v>
       </c>
       <c r="C259" t="n">
-        <v>1.542097331097374e-31</v>
+        <v>1.647858743052774e-31</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.842176312377644</v>
       </c>
       <c r="C260" t="n">
-        <v>1.577562551494421e-31</v>
+        <v>1.683136692151786e-31</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.843162147431244</v>
       </c>
       <c r="C261" t="n">
-        <v>1.629591705331055e-31</v>
+        <v>1.733127819355357e-31</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.844147982484843</v>
       </c>
       <c r="C262" t="n">
-        <v>1.695581162157808e-31</v>
+        <v>1.795346730017338e-31</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.845133817538442</v>
       </c>
       <c r="C263" t="n">
-        <v>1.772927291525242e-31</v>
+        <v>1.867308029491606e-31</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.846119652592042</v>
       </c>
       <c r="C264" t="n">
-        <v>1.859026462983809e-31</v>
+        <v>1.946526323131936e-31</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.847105487645641</v>
       </c>
       <c r="C265" t="n">
-        <v>1.951275046084063e-31</v>
+        <v>2.030516216292199e-31</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.84809132269924</v>
       </c>
       <c r="C266" t="n">
-        <v>2.047069410376526e-31</v>
+        <v>2.116792314326237e-31</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.84907715775284</v>
       </c>
       <c r="C267" t="n">
-        <v>2.143805925411766e-31</v>
+        <v>2.202869222587929e-31</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.850062992806439</v>
       </c>
       <c r="C268" t="n">
-        <v>2.238880960740216e-31</v>
+        <v>2.286261546431036e-31</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.851048827860038</v>
       </c>
       <c r="C269" t="n">
-        <v>2.329690885912443e-31</v>
+        <v>2.36448389120944e-31</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>3.852034662913637</v>
       </c>
       <c r="C270" t="n">
-        <v>2.413632070479004e-31</v>
+        <v>2.435050862277011e-31</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>3.853020497967237</v>
       </c>
       <c r="C271" t="n">
-        <v>2.488100883990347e-31</v>
+        <v>2.495477064987525e-31</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>3.854006333020836</v>
       </c>
       <c r="C272" t="n">
-        <v>2.550493695997033e-31</v>
+        <v>2.543277104694858e-31</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>3.854992168074435</v>
       </c>
       <c r="C273" t="n">
-        <v>2.598441670364102e-31</v>
+        <v>2.576443774674608e-31</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>3.855978003128035</v>
       </c>
       <c r="C274" t="n">
-        <v>2.632861523964085e-31</v>
+        <v>2.599661306909929e-31</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>3.856963838181634</v>
       </c>
       <c r="C275" t="n">
-        <v>2.657087593285901e-31</v>
+        <v>2.622537717430255e-31</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>3.857949673235233</v>
       </c>
       <c r="C276" t="n">
-        <v>2.674524976101824e-31</v>
+        <v>2.654793764772848e-31</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>3.858935508288833</v>
       </c>
       <c r="C277" t="n">
-        <v>2.69646295612395e-31</v>
+        <v>2.705370181546857e-31</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>3.859921343342432</v>
       </c>
       <c r="C278" t="n">
-        <v>2.754647676287095e-31</v>
+        <v>2.780975310802801e-31</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>3.860907178396031</v>
       </c>
       <c r="C279" t="n">
-        <v>2.856147491420173e-31</v>
+        <v>2.876358629613325e-31</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>3.86189301344963</v>
       </c>
       <c r="C280" t="n">
-        <v>2.962226528461965e-31</v>
+        <v>2.967319221929451e-31</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>3.86287884850323</v>
       </c>
       <c r="C281" t="n">
-        <v>3.035115080407563e-31</v>
+        <v>3.030832050607124e-31</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>3.863864683556829</v>
       </c>
       <c r="C282" t="n">
-        <v>3.066819072726248e-31</v>
+        <v>3.060649438858807e-31</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>3.864850518610428</v>
       </c>
       <c r="C283" t="n">
-        <v>3.059955975916809e-31</v>
+        <v>3.056502884816423e-31</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>3.865836353664028</v>
       </c>
       <c r="C284" t="n">
-        <v>3.017156273552856e-31</v>
+        <v>3.018131218951351e-31</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>3.866822188717627</v>
       </c>
       <c r="C285" t="n">
-        <v>2.941365320240644e-31</v>
+        <v>2.94567760338401e-31</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>3.867808023771226</v>
       </c>
       <c r="C286" t="n">
-        <v>2.841737328855191e-31</v>
+        <v>2.847258108639524e-31</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>3.868793858824825</v>
       </c>
       <c r="C287" t="n">
-        <v>2.733110450887336e-31</v>
+        <v>2.738287654725501e-31</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>3.869779693878425</v>
       </c>
       <c r="C288" t="n">
-        <v>2.630532468075002e-31</v>
+        <v>2.634450351682007e-31</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>3.870765528932024</v>
       </c>
       <c r="C289" t="n">
-        <v>2.549051162156249e-31</v>
+        <v>2.55143030954925e-31</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>3.871751363985623</v>
       </c>
       <c r="C290" t="n">
-        <v>2.503714314868995e-31</v>
+        <v>2.504911638367292e-31</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>3.872737199039222</v>
       </c>
       <c r="C291" t="n">
-        <v>2.509569707951203e-31</v>
+        <v>2.510578448176245e-31</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>3.873723034092822</v>
       </c>
       <c r="C292" t="n">
-        <v>2.581665123140887e-31</v>
+        <v>2.584114849016267e-31</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>3.874708869146421</v>
       </c>
       <c r="C293" t="n">
-        <v>2.735048342175952e-31</v>
+        <v>2.74120495092741e-31</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>3.87569470420002</v>
       </c>
       <c r="C294" t="n">
-        <v>2.975027471797607e-31</v>
+        <v>2.987255056738655e-31</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>3.87668053925362</v>
       </c>
       <c r="C295" t="n">
-        <v>3.193817897004554e-31</v>
+        <v>3.208330198503707e-31</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>3.877666374307219</v>
       </c>
       <c r="C296" t="n">
-        <v>3.247268908128908e-31</v>
+        <v>3.252003129051524e-31</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>3.878652209360818</v>
       </c>
       <c r="C297" t="n">
-        <v>3.171297177814641e-31</v>
+        <v>3.155282942559782e-31</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>3.879638044414418</v>
       </c>
       <c r="C298" t="n">
-        <v>3.056803266742138e-31</v>
+        <v>3.01313232476085e-31</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>3.880623879468017</v>
       </c>
       <c r="C299" t="n">
-        <v>2.952401829155528e-31</v>
+        <v>2.880035774678313e-31</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>3.881609714521616</v>
       </c>
       <c r="C300" t="n">
-        <v>2.852815805874386e-31</v>
+        <v>2.758887919750439e-31</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>3.882595549575215</v>
       </c>
       <c r="C301" t="n">
-        <v>2.7492712386255e-31</v>
+        <v>2.649235849108043e-31</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>3.883581384628815</v>
       </c>
       <c r="C302" t="n">
-        <v>2.632995290684727e-31</v>
+        <v>2.550626849881092e-31</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>3.884567219682414</v>
       </c>
       <c r="C303" t="n">
-        <v>2.50113646713311e-31</v>
+        <v>2.463653567678058e-31</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>3.885553054736013</v>
       </c>
       <c r="C304" t="n">
-        <v>2.370586642378102e-31</v>
+        <v>2.392394158519746e-31</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>3.886538889789612</v>
       </c>
       <c r="C305" t="n">
-        <v>2.262347578854758e-31</v>
+        <v>2.341652341388281e-31</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>3.887524724843212</v>
       </c>
       <c r="C306" t="n">
-        <v>2.19742103899812e-31</v>
+        <v>2.316231835265787e-31</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>3.888510559896811</v>
       </c>
       <c r="C307" t="n">
-        <v>2.194355463052925e-31</v>
+        <v>2.319829477890309e-31</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>3.88949639495041</v>
       </c>
       <c r="C308" t="n">
-        <v>2.238706848631258e-31</v>
+        <v>2.341256693216764e-31</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>3.89048223000401</v>
       </c>
       <c r="C309" t="n">
-        <v>2.292409514100653e-31</v>
+        <v>2.358667359357737e-31</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>3.891468065057609</v>
       </c>
       <c r="C310" t="n">
-        <v>2.316884439391624e-31</v>
+        <v>2.349983748202214e-31</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>3.892453900111208</v>
       </c>
       <c r="C311" t="n">
-        <v>2.281967165169267e-31</v>
+        <v>2.298089172674279e-31</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>3.893439735164808</v>
       </c>
       <c r="C312" t="n">
-        <v>2.19361969706505e-31</v>
+        <v>2.207166319581558e-31</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>3.894425570218407</v>
       </c>
       <c r="C313" t="n">
-        <v>2.067497299569191e-31</v>
+        <v>2.087112809223698e-31</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>3.895411405272006</v>
       </c>
       <c r="C314" t="n">
-        <v>1.91925535570625e-31</v>
+        <v>1.947826331785554e-31</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>3.896397240325606</v>
       </c>
       <c r="C315" t="n">
-        <v>1.764549235283342e-31</v>
+        <v>1.799204577939576e-31</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>3.897383075379205</v>
       </c>
       <c r="C316" t="n">
-        <v>1.617598456238605e-31</v>
+        <v>1.651198203552484e-31</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>3.898368910432804</v>
       </c>
       <c r="C317" t="n">
-        <v>1.487236184352639e-31</v>
+        <v>1.513956554338651e-31</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>3.899354745486403</v>
       </c>
       <c r="C318" t="n">
-        <v>1.381032776747973e-31</v>
+        <v>1.397675558050001e-31</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>3.900340580540003</v>
       </c>
       <c r="C319" t="n">
-        <v>1.306558590547201e-31</v>
+        <v>1.312551142438528e-31</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>3.901326415593602</v>
       </c>
       <c r="C320" t="n">
-        <v>1.270788288081939e-31</v>
+        <v>1.268076590616241e-31</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>3.902312250647201</v>
       </c>
       <c r="C321" t="n">
-        <v>1.271344414464392e-31</v>
+        <v>1.262714008091883e-31</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>3.903298085700801</v>
       </c>
       <c r="C322" t="n">
-        <v>1.298419021409061e-31</v>
+        <v>1.28616095108262e-31</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>3.9042839207544</v>
       </c>
       <c r="C323" t="n">
-        <v>1.341999175671343e-31</v>
+        <v>1.32787318825775e-31</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>3.905269755807999</v>
       </c>
       <c r="C324" t="n">
-        <v>1.392071944006573e-31</v>
+        <v>1.377306488286505e-31</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>3.906255590861599</v>
       </c>
       <c r="C325" t="n">
-        <v>1.438624393170144e-31</v>
+        <v>1.423916619838175e-31</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>3.907241425915198</v>
       </c>
       <c r="C326" t="n">
-        <v>1.471643589917432e-31</v>
+        <v>1.457159351582036e-31</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>3.908227260968797</v>
       </c>
       <c r="C327" t="n">
-        <v>1.481116601003811e-31</v>
+        <v>1.466490452187359e-31</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>3.909213096022397</v>
       </c>
       <c r="C328" t="n">
-        <v>1.457072781309368e-31</v>
+        <v>1.441410326600224e-31</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>3.910198931075996</v>
       </c>
       <c r="C329" t="n">
-        <v>1.395049723383363e-31</v>
+        <v>1.377233475875119e-31</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>3.911184766129595</v>
       </c>
       <c r="C330" t="n">
-        <v>1.301500079058294e-31</v>
+        <v>1.280795545852439e-31</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>3.912170601183194</v>
       </c>
       <c r="C331" t="n">
-        <v>1.184161431248114e-31</v>
+        <v>1.160288462411483e-31</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>3.913156436236794</v>
       </c>
       <c r="C332" t="n">
-        <v>1.050771362866652e-31</v>
+        <v>1.023904151431422e-31</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>3.914142271290393</v>
       </c>
       <c r="C333" t="n">
-        <v>9.090674568277732e-32</v>
+        <v>8.798345387914653e-32</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>3.915128106343992</v>
       </c>
       <c r="C334" t="n">
-        <v>7.667872960452793e-32</v>
+        <v>7.362715503707584e-32</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>3.916113941397592</v>
       </c>
       <c r="C335" t="n">
-        <v>6.316684634331664e-32</v>
+        <v>6.014071120486416e-32</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>3.917099776451191</v>
       </c>
       <c r="C336" t="n">
-        <v>5.114485419052349e-32</v>
+        <v>4.834331497042585e-32</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>3.91808561150479</v>
       </c>
       <c r="C337" t="n">
-        <v>4.138488862673161e-32</v>
+        <v>3.905237027739344e-32</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>3.91907144655839</v>
       </c>
       <c r="C338" t="n">
-        <v>3.432351305833582e-32</v>
+        <v>3.271541720554575e-32</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>3.920057281611989</v>
       </c>
       <c r="C339" t="n">
-        <v>2.965269969657976e-32</v>
+        <v>2.895931557664535e-32</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>3.921043116665588</v>
       </c>
       <c r="C340" t="n">
-        <v>2.696430727496354e-32</v>
+        <v>2.730058123406613e-32</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>3.922028951719188</v>
       </c>
       <c r="C341" t="n">
-        <v>2.585019452698705e-32</v>
+        <v>2.725573002118223e-32</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>3.923014786772787</v>
       </c>
       <c r="C342" t="n">
-        <v>2.590222018615127e-32</v>
+        <v>2.834127778136744e-32</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>3.924000621826386</v>
       </c>
       <c r="C343" t="n">
-        <v>2.671224298595548e-32</v>
+        <v>3.007374035799527e-32</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>3.924986456879985</v>
       </c>
       <c r="C344" t="n">
-        <v>2.787212165990032e-32</v>
+        <v>3.196963359444043e-32</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>3.925972291933585</v>
       </c>
       <c r="C345" t="n">
-        <v>2.897371494148473e-32</v>
+        <v>3.354547333407495e-32</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>3.926958126987184</v>
       </c>
       <c r="C346" t="n">
-        <v>2.963036071120073e-32</v>
+        <v>3.43443452843108e-32</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>3.927943962040783</v>
       </c>
       <c r="C347" t="n">
-        <v>2.978207507952632e-32</v>
+        <v>3.431343854447322e-32</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>3.928929797094383</v>
       </c>
       <c r="C348" t="n">
-        <v>2.962308322488183e-32</v>
+        <v>3.37144007151932e-32</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>3.929915632147982</v>
       </c>
       <c r="C349" t="n">
-        <v>2.935430920892912e-32</v>
+        <v>3.281716596532588e-32</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>3.930901467201581</v>
       </c>
       <c r="C350" t="n">
-        <v>2.917667709332981e-32</v>
+        <v>3.189166846372565e-32</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>3.931887302255181</v>
       </c>
       <c r="C351" t="n">
-        <v>2.92911109397457e-32</v>
+        <v>3.120784237924677e-32</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>3.93287313730878</v>
       </c>
       <c r="C352" t="n">
-        <v>2.98985348098384e-32</v>
+        <v>3.103562188074448e-32</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>3.933858972362379</v>
       </c>
       <c r="C353" t="n">
-        <v>3.119987276526954e-32</v>
+        <v>3.164494113707293e-32</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>3.934844807415978</v>
       </c>
       <c r="C354" t="n">
-        <v>3.339604886770076e-32</v>
+        <v>3.330573431708664e-32</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>3.935830642469578</v>
       </c>
       <c r="C355" t="n">
-        <v>3.661827866577783e-32</v>
+        <v>3.620104910520263e-32</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>3.936816477523177</v>
       </c>
       <c r="C356" t="n">
-        <v>4.071029530878021e-32</v>
+        <v>4.015560772546496e-32</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>3.937802312576776</v>
       </c>
       <c r="C357" t="n">
-        <v>4.544173261994744e-32</v>
+        <v>4.490177309513687e-32</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>3.938788147630375</v>
       </c>
       <c r="C358" t="n">
-        <v>5.058222434666193e-32</v>
+        <v>5.017190803693188e-32</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>3.939773982683975</v>
       </c>
       <c r="C359" t="n">
-        <v>5.590140423630852e-32</v>
+        <v>5.5698375373566e-32</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>3.940759817737574</v>
       </c>
       <c r="C360" t="n">
-        <v>6.116890603626471e-32</v>
+        <v>6.121353792774767e-32</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>3.941745652791173</v>
       </c>
       <c r="C361" t="n">
-        <v>6.615436349391535e-32</v>
+        <v>6.644975852219285e-32</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>3.942731487844773</v>
       </c>
       <c r="C362" t="n">
-        <v>7.06274103566447e-32</v>
+        <v>7.113939997961702e-32</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>3.943717322898372</v>
       </c>
       <c r="C363" t="n">
-        <v>7.435954027354604e-32</v>
+        <v>7.501677137703545e-32</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>3.944703157951971</v>
       </c>
       <c r="C364" t="n">
-        <v>7.747107573478939e-32</v>
+        <v>7.818120625946005e-32</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>3.945688993005571</v>
       </c>
       <c r="C365" t="n">
-        <v>8.083939593676089e-32</v>
+        <v>8.152424394415697e-32</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>3.94667482805917</v>
       </c>
       <c r="C366" t="n">
-        <v>8.544110382437598e-32</v>
+        <v>8.604125431443109e-32</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>3.947660663112769</v>
       </c>
       <c r="C367" t="n">
-        <v>9.225280234255409e-32</v>
+        <v>9.272760725359128e-32</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>3.948646498166368</v>
       </c>
       <c r="C368" t="n">
-        <v>1.022510944362133e-31</v>
+        <v>1.02578672644945e-31</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>3.949632333219968</v>
       </c>
       <c r="C369" t="n">
-        <v>1.16412583050279e-31</v>
+        <v>1.16589820371807e-31</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>3.950618168273567</v>
       </c>
       <c r="C370" t="n">
-        <v>1.35713871129657e-31</v>
+        <v>1.357564203174726e-31</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>3.951604003327166</v>
       </c>
       <c r="C371" t="n">
-        <v>1.611315616192707e-31</v>
+        <v>1.610738423652546e-31</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>3.952589838380765</v>
       </c>
       <c r="C372" t="n">
-        <v>1.936201473265639e-31</v>
+        <v>1.935151621032537e-31</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>3.953575673434365</v>
       </c>
       <c r="C373" t="n">
-        <v>2.328955428235162e-31</v>
+        <v>2.328045606316837e-31</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>3.954561508487964</v>
       </c>
       <c r="C374" t="n">
-        <v>2.768028422561053e-31</v>
+        <v>2.767798163585745e-31</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>3.955547343541563</v>
       </c>
       <c r="C375" t="n">
-        <v>3.230318000789908e-31</v>
+        <v>3.231220741595055e-31</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>3.956533178595163</v>
       </c>
       <c r="C376" t="n">
-        <v>3.692721707468368e-31</v>
+        <v>3.695124789100603e-31</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>3.957519013648762</v>
       </c>
       <c r="C377" t="n">
-        <v>4.132137087142445e-31</v>
+        <v>4.136321754857592e-31</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>3.958504848702361</v>
       </c>
       <c r="C378" t="n">
-        <v>4.525461684358781e-31</v>
+        <v>4.531623087621864e-31</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>3.959490683755961</v>
       </c>
       <c r="C379" t="n">
-        <v>4.849593043663941e-31</v>
+        <v>4.857840236149173e-31</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>3.96047651880956</v>
       </c>
       <c r="C380" t="n">
-        <v>5.081428709604057e-31</v>
+        <v>5.091784649194853e-31</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>3.961462353863159</v>
       </c>
       <c r="C381" t="n">
-        <v>5.202729114579894e-31</v>
+        <v>5.215137875914733e-31</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>3.962448188916758</v>
       </c>
       <c r="C382" t="n">
-        <v>5.220705095351603e-31</v>
+        <v>5.23506961739595e-31</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>3.963434023970358</v>
       </c>
       <c r="C383" t="n">
-        <v>5.150865487373954e-31</v>
+        <v>5.167059880859392e-31</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>3.964419859023957</v>
       </c>
       <c r="C384" t="n">
-        <v>5.008723692767077e-31</v>
+        <v>5.026593246964496e-31</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>3.965405694077556</v>
       </c>
       <c r="C385" t="n">
-        <v>4.80979311365103e-31</v>
+        <v>4.829154296370626e-31</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>3.966391529131156</v>
       </c>
       <c r="C386" t="n">
-        <v>4.569587152145879e-31</v>
+        <v>4.590227609737159e-31</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>3.967377364184755</v>
       </c>
       <c r="C387" t="n">
-        <v>4.303619210371565e-31</v>
+        <v>4.325297767723343e-31</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>3.968363199238354</v>
       </c>
       <c r="C388" t="n">
-        <v>4.027402690448399e-31</v>
+        <v>4.0498493509888e-31</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>3.969349034291954</v>
       </c>
       <c r="C389" t="n">
-        <v>3.756450762219766e-31</v>
+        <v>3.779366708722362e-31</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>3.970334869345553</v>
       </c>
       <c r="C390" t="n">
-        <v>3.503163304947509e-31</v>
+        <v>3.526231704541462e-31</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>3.971320704399152</v>
       </c>
       <c r="C391" t="n">
-        <v>3.269022123590279e-31</v>
+        <v>3.29194602011265e-31</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>3.972306539452751</v>
       </c>
       <c r="C392" t="n">
-        <v>3.053116981975989e-31</v>
+        <v>3.075627597808014e-31</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>3.973292374506351</v>
       </c>
       <c r="C393" t="n">
-        <v>2.854537643932675e-31</v>
+        <v>2.876394379999759e-31</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>3.97427820955995</v>
       </c>
       <c r="C394" t="n">
-        <v>2.672373873288294e-31</v>
+        <v>2.693364309060012e-31</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>3.975264044613549</v>
       </c>
       <c r="C395" t="n">
-        <v>2.505715433871043e-31</v>
+        <v>2.525655327361144e-31</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>3.976249879667149</v>
       </c>
       <c r="C396" t="n">
-        <v>2.353652089508871e-31</v>
+        <v>2.372385377275271e-31</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>3.977235714720748</v>
       </c>
       <c r="C397" t="n">
-        <v>2.215273604029812e-31</v>
+        <v>2.232672401174603e-31</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>3.978221549774347</v>
       </c>
       <c r="C398" t="n">
-        <v>2.089669741261847e-31</v>
+        <v>2.105634341431289e-31</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>3.979207384827947</v>
       </c>
       <c r="C399" t="n">
-        <v>1.975930265033123e-31</v>
+        <v>1.990389140417648e-31</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>3.980193219881546</v>
       </c>
       <c r="C400" t="n">
-        <v>1.873144939171615e-31</v>
+        <v>1.886054740505825e-31</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>3.981179054935145</v>
       </c>
       <c r="C401" t="n">
-        <v>1.780403527505318e-31</v>
+        <v>1.791749084067986e-31</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>3.982164889988745</v>
       </c>
       <c r="C402" t="n">
-        <v>1.69679579386235e-31</v>
+        <v>1.706590113476422e-31</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>3.983150725042344</v>
       </c>
       <c r="C403" t="n">
-        <v>1.6214115020707e-31</v>
+        <v>1.629695771103293e-31</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>3.984136560095943</v>
       </c>
       <c r="C404" t="n">
-        <v>1.553340415958375e-31</v>
+        <v>1.560183999320774e-31</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>3.985122395149542</v>
       </c>
       <c r="C405" t="n">
-        <v>1.49167229935347e-31</v>
+        <v>1.497172740501134e-31</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>3.986108230203142</v>
       </c>
       <c r="C406" t="n">
-        <v>1.435496916083986e-31</v>
+        <v>1.439779937016545e-31</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>3.987094065256741</v>
       </c>
       <c r="C407" t="n">
-        <v>1.383968511350742e-31</v>
+        <v>1.387184470960024e-31</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>3.98807990031034</v>
       </c>
       <c r="C408" t="n">
-        <v>1.336672081078226e-31</v>
+        <v>1.338972316080777e-31</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>3.98906573536394</v>
       </c>
       <c r="C409" t="n">
-        <v>1.29336911236429e-31</v>
+        <v>1.294896243489267e-31</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>3.990051570417539</v>
       </c>
       <c r="C410" t="n">
-        <v>1.253821625509556e-31</v>
+        <v>1.254709528212462e-31</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>3.991037405471138</v>
       </c>
       <c r="C411" t="n">
-        <v>1.217791640814673e-31</v>
+        <v>1.218165445277351e-31</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>3.992023240524738</v>
       </c>
       <c r="C412" t="n">
-        <v>1.185041178580272e-31</v>
+        <v>1.185017269710911e-31</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>3.993009075578337</v>
       </c>
       <c r="C413" t="n">
-        <v>1.15533225910703e-31</v>
+        <v>1.155018276540161e-31</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>3.993994910631936</v>
       </c>
       <c r="C414" t="n">
-        <v>1.128426902695577e-31</v>
+        <v>1.127921740792074e-31</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>3.994980745685536</v>
       </c>
       <c r="C415" t="n">
-        <v>1.104087129646551e-31</v>
+        <v>1.103480937493631e-31</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>3.995966580739135</v>
       </c>
       <c r="C416" t="n">
-        <v>1.082074960260619e-31</v>
+        <v>1.081449141671842e-31</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>3.996952415792734</v>
       </c>
       <c r="C417" t="n">
-        <v>1.062152414838416e-31</v>
+        <v>1.061579628353687e-31</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>3.997938250846333</v>
       </c>
       <c r="C418" t="n">
-        <v>1.044081513680581e-31</v>
+        <v>1.043625672566146e-31</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>3.998924085899933</v>
       </c>
       <c r="C419" t="n">
-        <v>1.027624277087778e-31</v>
+        <v>1.027340549336227e-31</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>3.999909920953532</v>
       </c>
       <c r="C420" t="n">
-        <v>1.012542725360644e-31</v>
+        <v>1.01247753369091e-31</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.000895756007131</v>
       </c>
       <c r="C421" t="n">
-        <v>9.985988787998198e-32</v>
+        <v>9.987899006571789e-32</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.00188159106073</v>
       </c>
       <c r="C422" t="n">
-        <v>9.855547577059697e-32</v>
+        <v>9.860309252620418e-32</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.00286742611433</v>
       </c>
       <c r="C423" t="n">
-        <v>9.731723823797169e-32</v>
+        <v>9.739538825324648e-32</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.003853261167929</v>
       </c>
       <c r="C424" t="n">
-        <v>9.612137731217202e-32</v>
+        <v>9.623120474954495e-32</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.004839096221528</v>
       </c>
       <c r="C425" t="n">
-        <v>9.494409502326365e-32</v>
+        <v>9.508586951779956e-32</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.005824931275128</v>
       </c>
       <c r="C426" t="n">
-        <v>9.376159340130904e-32</v>
+        <v>9.393471006070721e-32</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.006810766328726</v>
       </c>
       <c r="C427" t="n">
-        <v>9.255007447637507e-32</v>
+        <v>9.275305388096897e-32</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.007796601382326</v>
       </c>
       <c r="C428" t="n">
-        <v>9.128574027852416e-32</v>
+        <v>9.151622848128169e-32</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.008782436435926</v>
       </c>
       <c r="C429" t="n">
-        <v>8.994479283782203e-32</v>
+        <v>9.019956136434532e-32</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.009768271489524</v>
       </c>
       <c r="C430" t="n">
-        <v>8.850343418433461e-32</v>
+        <v>8.877838003286016e-32</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.010754106543124</v>
       </c>
       <c r="C431" t="n">
-        <v>8.693786634812402e-32</v>
+        <v>8.722801198952261e-32</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.011739941596724</v>
       </c>
       <c r="C432" t="n">
-        <v>8.522429135925612e-32</v>
+        <v>8.552378473703284e-32</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.012725776650322</v>
       </c>
       <c r="C433" t="n">
-        <v>8.334099894763583e-32</v>
+        <v>8.364318688343339e-32</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.013711611703922</v>
       </c>
       <c r="C434" t="n">
-        <v>8.129062002424648e-32</v>
+        <v>8.158890407682195e-32</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.014697446757522</v>
       </c>
       <c r="C435" t="n">
-        <v>7.909152358690642e-32</v>
+        <v>7.937991341816739e-32</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.01568328181112</v>
       </c>
       <c r="C436" t="n">
-        <v>7.676234247113107e-32</v>
+        <v>7.703546512291886e-32</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.01666911686472</v>
       </c>
       <c r="C437" t="n">
-        <v>7.432170951242942e-32</v>
+        <v>7.457480940651911e-32</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.01765495191832</v>
       </c>
       <c r="C438" t="n">
-        <v>7.178825754631681e-32</v>
+        <v>7.20171964844172e-32</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.018640786971918</v>
       </c>
       <c r="C439" t="n">
-        <v>6.918061940830883e-32</v>
+        <v>6.938187657206257e-32</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.019626622025518</v>
       </c>
       <c r="C440" t="n">
-        <v>6.651742793391403e-32</v>
+        <v>6.668809988489744e-32</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.020612457079118</v>
       </c>
       <c r="C441" t="n">
-        <v>6.3817315958648e-32</v>
+        <v>6.395511663837115e-32</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.021598292132716</v>
       </c>
       <c r="C442" t="n">
-        <v>6.109891631802642e-32</v>
+        <v>6.120217704793317e-32</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.022584127186316</v>
       </c>
       <c r="C443" t="n">
-        <v>5.83808618475576e-32</v>
+        <v>5.844853132902558e-32</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.023569962239915</v>
       </c>
       <c r="C444" t="n">
-        <v>5.56817853827597e-32</v>
+        <v>5.571342969710025e-32</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.024555797293514</v>
       </c>
       <c r="C445" t="n">
-        <v>5.302031975914103e-32</v>
+        <v>5.301612236759926e-32</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.025541632347114</v>
       </c>
       <c r="C446" t="n">
-        <v>5.041509781221733e-32</v>
+        <v>5.03758595559721e-32</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.026527467400713</v>
       </c>
       <c r="C447" t="n">
-        <v>4.788475237750409e-32</v>
+        <v>4.781189147766805e-32</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.027513302454312</v>
       </c>
       <c r="C448" t="n">
-        <v>4.544791629050993e-32</v>
+        <v>4.534346834812943e-32</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.028499137507912</v>
       </c>
       <c r="C449" t="n">
-        <v>4.31232223867505e-32</v>
+        <v>4.298984038280566e-32</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.029484972561511</v>
       </c>
       <c r="C450" t="n">
-        <v>4.092894582588596e-32</v>
+        <v>4.076988800592989e-32</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.03047080761511</v>
       </c>
       <c r="C451" t="n">
-        <v>3.887302741564292e-32</v>
+        <v>3.869180723988788e-32</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.03145664266871</v>
       </c>
       <c r="C452" t="n">
-        <v>3.695174623123427e-32</v>
+        <v>3.675173736299309e-32</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.032442477722308</v>
       </c>
       <c r="C453" t="n">
-        <v>3.51607569801012e-32</v>
+        <v>3.494517213691537e-32</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.033428312775908</v>
       </c>
       <c r="C454" t="n">
-        <v>3.349571436968004e-32</v>
+        <v>3.326760532331974e-32</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.034414147829507</v>
       </c>
       <c r="C455" t="n">
-        <v>3.195227310741337e-32</v>
+        <v>3.171453068387748e-32</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.035399982883106</v>
       </c>
       <c r="C456" t="n">
-        <v>3.052608790073802e-32</v>
+        <v>3.028144198025408e-32</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.036385817936706</v>
       </c>
       <c r="C457" t="n">
-        <v>2.921281345709502e-32</v>
+        <v>2.896383297411927e-32</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.037371652990305</v>
       </c>
       <c r="C458" t="n">
-        <v>2.800810448392497e-32</v>
+        <v>2.775719742714233e-32</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.038357488043904</v>
       </c>
       <c r="C459" t="n">
-        <v>2.69076156886653e-32</v>
+        <v>2.665702910098939e-32</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.039343323097504</v>
       </c>
       <c r="C460" t="n">
-        <v>2.590700177875673e-32</v>
+        <v>2.565882175732983e-32</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.040329158151103</v>
       </c>
       <c r="C461" t="n">
-        <v>2.500191746163961e-32</v>
+        <v>2.475806915783269e-32</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.041314993204702</v>
       </c>
       <c r="C462" t="n">
-        <v>2.418801744475189e-32</v>
+        <v>2.395026506416464e-32</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.042300828258302</v>
       </c>
       <c r="C463" t="n">
-        <v>2.346095643553404e-32</v>
+        <v>2.323090323799478e-32</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.043286663311901</v>
       </c>
       <c r="C464" t="n">
-        <v>2.281638914142616e-32</v>
+        <v>2.259547744099193e-32</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.0442724983655</v>
       </c>
       <c r="C465" t="n">
-        <v>2.22499702698667e-32</v>
+        <v>2.203948143482321e-32</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.0452583334191</v>
       </c>
       <c r="C466" t="n">
-        <v>2.175735452829583e-32</v>
+        <v>2.155840898115749e-32</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.046244168472699</v>
       </c>
       <c r="C467" t="n">
-        <v>2.133419662415351e-32</v>
+        <v>2.11477538416634e-32</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.047230003526298</v>
       </c>
       <c r="C468" t="n">
-        <v>2.097615126487856e-32</v>
+        <v>2.080300977800846e-32</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.048215838579897</v>
       </c>
       <c r="C469" t="n">
-        <v>2.067887315791122e-32</v>
+        <v>2.051967055186156e-32</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.049201673633497</v>
       </c>
       <c r="C470" t="n">
-        <v>2.043801701069052e-32</v>
+        <v>2.029322992489049e-32</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.050187508687096</v>
       </c>
       <c r="C471" t="n">
-        <v>2.024923753065637e-32</v>
+        <v>2.011918165876376e-32</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.051173343740695</v>
       </c>
       <c r="C472" t="n">
-        <v>2.010818942524844e-32</v>
+        <v>1.999301951514976e-32</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.052159178794295</v>
       </c>
       <c r="C473" t="n">
-        <v>2.001052740190607e-32</v>
+        <v>1.991023725571654e-32</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.053145013847894</v>
       </c>
       <c r="C474" t="n">
-        <v>1.9951906168069e-32</v>
+        <v>1.986632864213248e-32</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.054130848901493</v>
       </c>
       <c r="C475" t="n">
-        <v>1.99279804311768e-32</v>
+        <v>1.985678743606586e-32</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.055116683955093</v>
       </c>
       <c r="C476" t="n">
-        <v>1.993440489866904e-32</v>
+        <v>1.987710739918493e-32</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.056102519008692</v>
       </c>
       <c r="C477" t="n">
-        <v>1.996683427798532e-32</v>
+        <v>1.992278229315798e-32</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.057088354062291</v>
       </c>
       <c r="C478" t="n">
-        <v>2.002092327656517e-32</v>
+        <v>1.998930587965321e-32</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.05807418911589</v>
       </c>
       <c r="C479" t="n">
-        <v>2.009232660184828e-32</v>
+        <v>2.007217192033903e-32</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.05906002416949</v>
       </c>
       <c r="C480" t="n">
-        <v>2.017669896127419e-32</v>
+        <v>2.016687417688363e-32</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.060045859223089</v>
       </c>
       <c r="C481" t="n">
-        <v>2.02696950622824e-32</v>
+        <v>2.026890641095519e-32</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.061031694276688</v>
       </c>
       <c r="C482" t="n">
-        <v>2.036696961231267e-32</v>
+        <v>2.037376238422219e-32</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.062017529330287</v>
       </c>
       <c r="C483" t="n">
-        <v>2.046417731880442e-32</v>
+        <v>2.047693585835269e-32</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.063003364383887</v>
       </c>
       <c r="C484" t="n">
-        <v>2.055697288919739e-32</v>
+        <v>2.057392059501516e-32</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.063989199437486</v>
       </c>
       <c r="C485" t="n">
-        <v>2.064144308908821e-32</v>
+        <v>2.066065673429126e-32</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.064975034491085</v>
       </c>
       <c r="C486" t="n">
-        <v>2.072027560352296e-32</v>
+        <v>2.0739904118432e-32</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.065960869544685</v>
       </c>
       <c r="C487" t="n">
-        <v>2.080131001198217e-32</v>
+        <v>2.081974523995249e-32</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.066946704598284</v>
       </c>
       <c r="C488" t="n">
-        <v>2.089252255518901e-32</v>
+        <v>2.090840378214891e-32</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.067932539651883</v>
       </c>
       <c r="C489" t="n">
-        <v>2.100188947386661e-32</v>
+        <v>2.101410342831739e-32</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.068918374705483</v>
       </c>
       <c r="C490" t="n">
-        <v>2.113738700873838e-32</v>
+        <v>2.114506786175437e-32</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.069904209759082</v>
       </c>
       <c r="C491" t="n">
-        <v>2.130699140052748e-32</v>
+        <v>2.130952076575599e-32</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.070890044812681</v>
       </c>
       <c r="C492" t="n">
-        <v>2.151867888995692e-32</v>
+        <v>2.151568582361831e-32</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.071875879866281</v>
       </c>
       <c r="C493" t="n">
-        <v>2.178042571775032e-32</v>
+        <v>2.177178671863794e-32</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.072861714919879</v>
       </c>
       <c r="C494" t="n">
-        <v>2.210020812463043e-32</v>
+        <v>2.208604713411064e-32</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.073847549973479</v>
       </c>
       <c r="C495" t="n">
-        <v>2.248600235132105e-32</v>
+        <v>2.246669075333321e-32</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.074833385027079</v>
       </c>
       <c r="C496" t="n">
-        <v>2.294578463854514e-32</v>
+        <v>2.292194125960165e-32</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.075819220080677</v>
       </c>
       <c r="C497" t="n">
-        <v>2.348753122702543e-32</v>
+        <v>2.346002233621168e-32</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.076805055134277</v>
       </c>
       <c r="C498" t="n">
-        <v>2.411921835748611e-32</v>
+        <v>2.40891576664605e-32</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.077790890187877</v>
       </c>
       <c r="C499" t="n">
-        <v>2.484882227064997e-32</v>
+        <v>2.481757093364392e-32</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.078776725241475</v>
       </c>
       <c r="C500" t="n">
-        <v>2.568431920723943e-32</v>
+        <v>2.565348582105738e-32</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.079762560295075</v>
       </c>
       <c r="C501" t="n">
-        <v>2.663368540797924e-32</v>
+        <v>2.660512601199862e-32</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.080748395348675</v>
       </c>
       <c r="C502" t="n">
-        <v>2.770489711359193e-32</v>
+        <v>2.768071518976318e-32</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.081734230402273</v>
       </c>
       <c r="C503" t="n">
-        <v>2.890593056479958e-32</v>
+        <v>2.888847703764616e-32</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.082720065455873</v>
       </c>
       <c r="C504" t="n">
-        <v>3.024476200232758e-32</v>
+        <v>3.023663523894597e-32</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.083705900509472</v>
       </c>
       <c r="C505" t="n">
-        <v>3.172936766689817e-32</v>
+        <v>3.173341347695785e-32</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.084691735563071</v>
       </c>
       <c r="C506" t="n">
-        <v>3.336772379923301e-32</v>
+        <v>3.338703543497646e-32</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.085677570616671</v>
       </c>
       <c r="C507" t="n">
-        <v>3.516318479053709e-32</v>
+        <v>3.520104206373212e-32</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.08666340567027</v>
       </c>
       <c r="C508" t="n">
-        <v>3.706940123543324e-32</v>
+        <v>3.712861577545528e-32</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.087649240723869</v>
       </c>
       <c r="C509" t="n">
-        <v>3.900977006544999e-32</v>
+        <v>3.909228679154873e-32</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.088635075777469</v>
       </c>
       <c r="C510" t="n">
-        <v>4.090725953075007e-32</v>
+        <v>4.101415100508326e-32</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.089620910831067</v>
       </c>
       <c r="C511" t="n">
-        <v>4.268483788148946e-32</v>
+        <v>4.281630430912276e-32</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.090606745884667</v>
       </c>
       <c r="C512" t="n">
-        <v>4.426547336783059e-32</v>
+        <v>4.442084259673773e-32</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.091592580938267</v>
       </c>
       <c r="C513" t="n">
-        <v>4.557213423993103e-32</v>
+        <v>4.574986176099375e-32</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.092578415991865</v>
       </c>
       <c r="C514" t="n">
-        <v>4.652778874794928e-32</v>
+        <v>4.672545769495725e-32</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.093564251045465</v>
       </c>
       <c r="C515" t="n">
-        <v>4.705540514204637e-32</v>
+        <v>4.726972629169732e-32</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.094550086099065</v>
       </c>
       <c r="C516" t="n">
-        <v>4.707795167238043e-32</v>
+        <v>4.730476344428007e-32</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.095535921152663</v>
       </c>
       <c r="C517" t="n">
-        <v>4.651839658911149e-32</v>
+        <v>4.675266504577352e-32</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.096521756206263</v>
       </c>
       <c r="C518" t="n">
-        <v>4.52997081423978e-32</v>
+        <v>4.553552698924394e-32</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.097507591259863</v>
       </c>
       <c r="C519" t="n">
-        <v>4.33448545823988e-32</v>
+        <v>4.357544516775876e-32</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.098493426313461</v>
       </c>
       <c r="C520" t="n">
-        <v>4.060399087422376e-32</v>
+        <v>4.082191985107884e-32</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.099479261367061</v>
       </c>
       <c r="C521" t="n">
-        <v>3.721414772314069e-32</v>
+        <v>3.741282321000653e-32</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.10046509642066</v>
       </c>
       <c r="C522" t="n">
-        <v>3.339091535838627e-32</v>
+        <v>3.356521590103159e-32</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.101450931474259</v>
       </c>
       <c r="C523" t="n">
-        <v>2.935015586912717e-32</v>
+        <v>2.94964326171335e-32</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.102436766527859</v>
       </c>
       <c r="C524" t="n">
-        <v>2.530773134454049e-32</v>
+        <v>2.542380805130212e-32</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.103422601581458</v>
       </c>
       <c r="C525" t="n">
-        <v>2.147950387380321e-32</v>
+        <v>2.15646768965273e-32</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.104408436635057</v>
       </c>
       <c r="C526" t="n">
-        <v>1.808133554608204e-32</v>
+        <v>1.813637384578849e-32</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.105394271688657</v>
       </c>
       <c r="C527" t="n">
-        <v>1.532908845055431e-32</v>
+        <v>1.535623359207584e-32</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.106380106742256</v>
       </c>
       <c r="C528" t="n">
-        <v>1.343862467639501e-32</v>
+        <v>1.344159082837717e-32</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.107365941795855</v>
       </c>
       <c r="C529" t="n">
-        <v>1.257669813501253e-32</v>
+        <v>1.256039163977128e-32</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.108351776849455</v>
       </c>
       <c r="C530" t="n">
-        <v>1.268579916846763e-32</v>
+        <v>1.265503789449757e-32</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.109337611903054</v>
       </c>
       <c r="C531" t="n">
-        <v>1.364443613127945e-32</v>
+        <v>1.360358410685889e-32</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.110323446956653</v>
       </c>
       <c r="C532" t="n">
-        <v>1.533111254985618e-32</v>
+        <v>1.528407993547632e-32</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.111309282010252</v>
       </c>
       <c r="C533" t="n">
-        <v>1.762433195060141e-32</v>
+        <v>1.757457503896635e-32</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.112295117063852</v>
       </c>
       <c r="C534" t="n">
-        <v>2.040259785992573e-32</v>
+        <v>2.035311907595251e-32</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.113280952117451</v>
       </c>
       <c r="C535" t="n">
-        <v>2.354441380423371e-32</v>
+        <v>2.349776170505229e-32</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.11426678717105</v>
       </c>
       <c r="C536" t="n">
-        <v>2.692828330992859e-32</v>
+        <v>2.688655258488186e-32</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.115252622224649</v>
       </c>
       <c r="C537" t="n">
-        <v>3.043270990342296e-32</v>
+        <v>3.039754137406671e-32</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.116238457278249</v>
       </c>
       <c r="C538" t="n">
-        <v>3.393619711112023e-32</v>
+        <v>3.390877773122318e-32</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.117224292331848</v>
       </c>
       <c r="C539" t="n">
-        <v>3.731724845942383e-32</v>
+        <v>3.729831131496761e-32</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.118210127385447</v>
       </c>
       <c r="C540" t="n">
-        <v>4.04543674747463e-32</v>
+        <v>4.044419178392549e-32</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.119195962439047</v>
       </c>
       <c r="C541" t="n">
-        <v>4.322605768349091e-32</v>
+        <v>4.322446879671297e-32</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.120181797492646</v>
       </c>
       <c r="C542" t="n">
-        <v>4.551082261206225e-32</v>
+        <v>4.551719201194758e-32</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.121167632546245</v>
       </c>
       <c r="C543" t="n">
-        <v>4.718716578687086e-32</v>
+        <v>4.720041108825279e-32</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.122153467599845</v>
       </c>
       <c r="C544" t="n">
-        <v>4.813359073432089e-32</v>
+        <v>4.815217568424565e-32</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.123139302653444</v>
       </c>
       <c r="C545" t="n">
-        <v>4.822860098081898e-32</v>
+        <v>4.825053545854573e-32</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.124125137707043</v>
       </c>
       <c r="C546" t="n">
-        <v>4.737653255127798e-32</v>
+        <v>4.73994542299104e-32</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.125110972760643</v>
       </c>
       <c r="C547" t="n">
-        <v>4.565490442635597e-32</v>
+        <v>4.567662623838177e-32</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.126096807814242</v>
       </c>
       <c r="C548" t="n">
-        <v>4.321242217264364e-32</v>
+        <v>4.323115734479726e-32</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.127082642867841</v>
       </c>
       <c r="C549" t="n">
-        <v>4.019801019870222e-32</v>
+        <v>4.02123729437676e-32</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.12806847792144</v>
       </c>
       <c r="C550" t="n">
-        <v>3.676059291310266e-32</v>
+        <v>3.676959842991321e-32</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.12905431297504</v>
       </c>
       <c r="C551" t="n">
-        <v>3.304909472440441e-32</v>
+        <v>3.305215919784302e-32</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.130040148028639</v>
       </c>
       <c r="C552" t="n">
-        <v>2.92124400411762e-32</v>
+        <v>2.92093806421752e-32</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.131025983082238</v>
       </c>
       <c r="C553" t="n">
-        <v>2.539955327198715e-32</v>
+        <v>2.539058815752839e-32</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.132011818135838</v>
       </c>
       <c r="C554" t="n">
-        <v>2.175935882539608e-32</v>
+        <v>2.174510713851088e-32</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.132997653189437</v>
       </c>
       <c r="C555" t="n">
-        <v>1.844078110997222e-32</v>
+        <v>1.842226297974136e-32</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.133983488243036</v>
       </c>
       <c r="C556" t="n">
-        <v>1.559264244848237e-32</v>
+        <v>1.557127868167533e-32</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.134969323296636</v>
       </c>
       <c r="C557" t="n">
-        <v>1.330722052236996e-32</v>
+        <v>1.328466180447954e-32</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.135955158350235</v>
       </c>
       <c r="C558" t="n">
-        <v>1.152644789768004e-32</v>
+        <v>1.150412065987689e-32</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.136940993403834</v>
       </c>
       <c r="C559" t="n">
-        <v>1.016754593181065e-32</v>
+        <v>1.014657770816946e-32</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.137926828457434</v>
       </c>
       <c r="C560" t="n">
-        <v>9.147735982156351e-33</v>
+        <v>9.128955409655898e-33</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.138912663511032</v>
       </c>
       <c r="C561" t="n">
-        <v>8.384239406116113e-33</v>
+        <v>8.368176224639237e-33</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.139898498564632</v>
       </c>
       <c r="C562" t="n">
-        <v>7.794277561085586e-33</v>
+        <v>7.781162613419189e-33</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.140884333618231</v>
       </c>
       <c r="C563" t="n">
-        <v>7.295342815027254e-33</v>
+        <v>7.285109070304842e-33</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.14187016867183</v>
       </c>
       <c r="C564" t="n">
-        <v>6.831851547256401e-33</v>
+        <v>6.824235776619836e-33</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.14285600372543</v>
       </c>
       <c r="C565" t="n">
-        <v>6.397618590050496e-33</v>
+        <v>6.392347914647208e-33</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.143841838779029</v>
       </c>
       <c r="C566" t="n">
-        <v>5.991750528047893e-33</v>
+        <v>5.988562402770154e-33</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.144827673832628</v>
       </c>
       <c r="C567" t="n">
-        <v>5.613353945886851e-33</v>
+        <v>5.611996159371764e-33</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.145813508886228</v>
       </c>
       <c r="C568" t="n">
-        <v>5.261535428204616e-33</v>
+        <v>5.261766102834125e-33</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.146799343939827</v>
       </c>
       <c r="C569" t="n">
-        <v>4.935401559639468e-33</v>
+        <v>4.936989151540354e-33</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.147785178993426</v>
       </c>
       <c r="C570" t="n">
-        <v>4.634058924829595e-33</v>
+        <v>4.636782223873478e-33</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.148771014047026</v>
       </c>
       <c r="C571" t="n">
-        <v>4.356614108412381e-33</v>
+        <v>4.36026223821572e-33</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.149756849100625</v>
       </c>
       <c r="C572" t="n">
-        <v>4.102173695026037e-33</v>
+        <v>4.106546112950125e-33</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.150742684154224</v>
       </c>
       <c r="C573" t="n">
-        <v>3.869844269308689e-33</v>
+        <v>3.874750766459657e-33</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.151728519207824</v>
       </c>
       <c r="C574" t="n">
-        <v>3.658732415897849e-33</v>
+        <v>3.663993117126668e-33</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.152714354261423</v>
       </c>
       <c r="C575" t="n">
-        <v>3.467944719431658e-33</v>
+        <v>3.473390083334136e-33</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.153700189315022</v>
       </c>
       <c r="C576" t="n">
-        <v>3.296587764548194e-33</v>
+        <v>3.302058583464976e-33</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.154686024368622</v>
       </c>
       <c r="C577" t="n">
-        <v>3.143768135885073e-33</v>
+        <v>3.149115535901642e-33</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.15567185942222</v>
       </c>
       <c r="C578" t="n">
-        <v>3.008592418080503e-33</v>
+        <v>3.01367785902718e-33</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.15665769447582</v>
       </c>
       <c r="C579" t="n">
-        <v>2.890167195772164e-33</v>
+        <v>2.894862471224108e-33</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.15764352952942</v>
       </c>
       <c r="C580" t="n">
-        <v>2.787599053598116e-33</v>
+        <v>2.791786290875323e-33</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.158629364583018</v>
       </c>
       <c r="C581" t="n">
-        <v>2.699994576196357e-33</v>
+        <v>2.703566236363662e-33</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.159615199636618</v>
       </c>
       <c r="C582" t="n">
-        <v>2.626460348204659e-33</v>
+        <v>2.629319226071732e-33</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.160601034690218</v>
       </c>
       <c r="C583" t="n">
-        <v>2.566102954261033e-33</v>
+        <v>2.568162178382384e-33</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.161586869743816</v>
       </c>
       <c r="C584" t="n">
-        <v>2.518028979003444e-33</v>
+        <v>2.519212011678421e-33</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.162572704797416</v>
       </c>
       <c r="C585" t="n">
-        <v>2.481345007069735e-33</v>
+        <v>2.481585644342523e-33</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.163558539851016</v>
       </c>
       <c r="C586" t="n">
-        <v>2.455157623097882e-33</v>
+        <v>2.454399994757502e-33</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.164544374904614</v>
       </c>
       <c r="C587" t="n">
-        <v>2.43857341172582e-33</v>
+        <v>2.436771981306135e-33</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.165530209958214</v>
       </c>
       <c r="C588" t="n">
-        <v>2.430698957591452e-33</v>
+        <v>2.427818522371156e-33</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.166516045011813</v>
       </c>
       <c r="C589" t="n">
-        <v>2.430640845332716e-33</v>
+        <v>2.426656536335348e-33</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.167501880065412</v>
       </c>
       <c r="C590" t="n">
-        <v>2.437505659587544e-33</v>
+        <v>2.432402941581476e-33</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.168487715119012</v>
       </c>
       <c r="C591" t="n">
-        <v>2.450399984993864e-33</v>
+        <v>2.444174656492307e-33</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.169473550172611</v>
       </c>
       <c r="C592" t="n">
-        <v>2.468430406189586e-33</v>
+        <v>2.461088599450591e-33</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.17045938522621</v>
       </c>
       <c r="C593" t="n">
-        <v>2.490703507812672e-33</v>
+        <v>2.482261688839123e-33</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.17144522027981</v>
       </c>
       <c r="C594" t="n">
-        <v>2.516325874501032e-33</v>
+        <v>2.506810843040654e-33</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.172431055333409</v>
       </c>
       <c r="C595" t="n">
-        <v>2.544404090892569e-33</v>
+        <v>2.533852980437925e-33</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.173416890387008</v>
       </c>
       <c r="C596" t="n">
-        <v>2.574044741625261e-33</v>
+        <v>2.562505019413749e-33</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.174402725440608</v>
       </c>
       <c r="C597" t="n">
-        <v>2.604354411337012e-33</v>
+        <v>2.59188387835087e-33</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.175388560494206</v>
       </c>
       <c r="C598" t="n">
-        <v>2.634439684665721e-33</v>
+        <v>2.621106475632025e-33</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.176374395547806</v>
       </c>
       <c r="C599" t="n">
-        <v>2.663407146249371e-33</v>
+        <v>2.649289729640033e-33</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.177360230601405</v>
       </c>
       <c r="C600" t="n">
-        <v>2.69036338072584e-33</v>
+        <v>2.67555055875761e-33</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.178346065655004</v>
       </c>
       <c r="C601" t="n">
-        <v>2.714414972733101e-33</v>
+        <v>2.699005881367568e-33</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.179331900708604</v>
       </c>
       <c r="C602" t="n">
-        <v>2.734668506909059e-33</v>
+        <v>2.718772615852649e-33</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.180317735762203</v>
       </c>
       <c r="C603" t="n">
-        <v>2.750230813067716e-33</v>
+        <v>2.733967922115274e-33</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.181303570815802</v>
       </c>
       <c r="C604" t="n">
-        <v>2.76046519882387e-33</v>
+        <v>2.743961612892004e-33</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.182289405869402</v>
       </c>
       <c r="C605" t="n">
-        <v>2.765477026941644e-33</v>
+        <v>2.748854489472741e-33</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.183275240923001</v>
       </c>
       <c r="C606" t="n">
-        <v>2.765505083238937e-33</v>
+        <v>2.748878786404263e-33</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.1842610759766</v>
       </c>
       <c r="C607" t="n">
-        <v>2.760788153533648e-33</v>
+        <v>2.74426673823335e-33</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.1852469110302</v>
       </c>
       <c r="C608" t="n">
-        <v>2.751565023643671e-33</v>
+        <v>2.735250579506777e-33</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.186232746083799</v>
       </c>
       <c r="C609" t="n">
-        <v>2.738074479386916e-33</v>
+        <v>2.722062544771337e-33</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.187218581137398</v>
       </c>
       <c r="C610" t="n">
-        <v>2.720555306581257e-33</v>
+        <v>2.704934868573784e-33</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.188204416190998</v>
       </c>
       <c r="C611" t="n">
-        <v>2.699246291044602e-33</v>
+        <v>2.684099785460907e-33</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.189190251244597</v>
       </c>
       <c r="C612" t="n">
-        <v>2.674386218594871e-33</v>
+        <v>2.659789529979507e-33</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.190176086298196</v>
       </c>
       <c r="C613" t="n">
-        <v>2.646213875049917e-33</v>
+        <v>2.632236336676319e-33</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.191161921351796</v>
       </c>
       <c r="C614" t="n">
-        <v>2.614968046227657e-33</v>
+        <v>2.601672440098141e-33</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.192147756405395</v>
       </c>
       <c r="C615" t="n">
-        <v>2.580887517946021e-33</v>
+        <v>2.568330074791785e-33</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.193133591458994</v>
       </c>
       <c r="C616" t="n">
-        <v>2.544211076022845e-33</v>
+        <v>2.532441475303966e-33</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.194119426512593</v>
       </c>
       <c r="C617" t="n">
-        <v>2.505177506276092e-33</v>
+        <v>2.494238876181528e-33</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.195105261566193</v>
       </c>
       <c r="C618" t="n">
-        <v>2.464025594523588e-33</v>
+        <v>2.453954511971182e-33</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.196091096619792</v>
       </c>
       <c r="C619" t="n">
-        <v>2.420994126583264e-33</v>
+        <v>2.411820617219736e-33</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.197076931673391</v>
       </c>
       <c r="C620" t="n">
-        <v>2.376321888273059e-33</v>
+        <v>2.368069426474013e-33</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.198062766726991</v>
       </c>
       <c r="C621" t="n">
-        <v>2.33024766541079e-33</v>
+        <v>2.322933174280709e-33</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.19904860178059</v>
       </c>
       <c r="C622" t="n">
-        <v>2.283010243814392e-33</v>
+        <v>2.276644095186644e-33</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.200034436834189</v>
       </c>
       <c r="C623" t="n">
-        <v>2.234848409301806e-33</v>
+        <v>2.229434423738635e-33</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.201020271887788</v>
       </c>
       <c r="C624" t="n">
-        <v>2.186000947690845e-33</v>
+        <v>2.181536394483379e-33</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.202006106941388</v>
       </c>
       <c r="C625" t="n">
-        <v>2.136706644799447e-33</v>
+        <v>2.133182241967695e-33</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.202991941994987</v>
       </c>
       <c r="C626" t="n">
-        <v>2.087204286445555e-33</v>
+        <v>2.084604200738407e-33</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.203977777048586</v>
       </c>
       <c r="C627" t="n">
-        <v>2.037732658446975e-33</v>
+        <v>2.036034505342203e-33</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.204963612102185</v>
       </c>
       <c r="C628" t="n">
-        <v>1.988530546621695e-33</v>
+        <v>1.987705390325949e-33</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.205949447155785</v>
       </c>
       <c r="C629" t="n">
-        <v>1.939836736787523e-33</v>
+        <v>1.939849090236339e-33</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.206935282209384</v>
       </c>
       <c r="C630" t="n">
-        <v>1.891890014762398e-33</v>
+        <v>1.892697839620192e-33</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.207921117262983</v>
       </c>
       <c r="C631" t="n">
-        <v>1.844929166364264e-33</v>
+        <v>1.846483873024329e-33</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.208906952316583</v>
       </c>
       <c r="C632" t="n">
-        <v>1.799192977410929e-33</v>
+        <v>1.801439424995443e-33</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.209892787370182</v>
       </c>
       <c r="C633" t="n">
-        <v>1.754920233720335e-33</v>
+        <v>1.757796730080357e-33</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.210878622423781</v>
       </c>
       <c r="C634" t="n">
-        <v>1.712349721110417e-33</v>
+        <v>1.715788022825886e-33</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.211864457477381</v>
       </c>
       <c r="C635" t="n">
-        <v>1.671720225398994e-33</v>
+        <v>1.675645537778731e-33</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.21285029253098</v>
       </c>
       <c r="C636" t="n">
-        <v>1.633270532404004e-33</v>
+        <v>1.63760150948571e-33</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.213836127584579</v>
       </c>
       <c r="C637" t="n">
-        <v>1.597239427943375e-33</v>
+        <v>1.601888172493634e-33</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.214821962638179</v>
       </c>
       <c r="C638" t="n">
-        <v>1.563865697834938e-33</v>
+        <v>1.568737761349214e-33</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.215807797691777</v>
       </c>
       <c r="C639" t="n">
-        <v>1.533388127896651e-33</v>
+        <v>1.53838251059929e-33</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.216793632745377</v>
       </c>
       <c r="C640" t="n">
-        <v>1.506045503946357e-33</v>
+        <v>1.511054654790584e-33</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.217779467798977</v>
       </c>
       <c r="C641" t="n">
-        <v>1.482076608021804e-33</v>
+        <v>1.486986424813893e-33</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.218765302852576</v>
       </c>
       <c r="C642" t="n">
-        <v>1.461611728183646e-33</v>
+        <v>1.466305121192341e-33</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.219751137906175</v>
       </c>
       <c r="C643" t="n">
-        <v>1.444388929537315e-33</v>
+        <v>1.448758704507799e-33</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.220736972959775</v>
       </c>
       <c r="C644" t="n">
-        <v>1.430057672808435e-33</v>
+        <v>1.43400944127506e-33</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.221722808013373</v>
       </c>
       <c r="C645" t="n">
-        <v>1.418267418722688e-33</v>
+        <v>1.421719598008978e-33</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.222708643066973</v>
       </c>
       <c r="C646" t="n">
-        <v>1.408667628005708e-33</v>
+        <v>1.411551441224354e-33</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.223694478120573</v>
       </c>
       <c r="C647" t="n">
-        <v>1.40090776138316e-33</v>
+        <v>1.403167237436027e-33</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.224680313174171</v>
       </c>
       <c r="C648" t="n">
-        <v>1.394637279580705e-33</v>
+        <v>1.396229253158829e-33</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.225666148227771</v>
       </c>
       <c r="C649" t="n">
-        <v>1.389505643323987e-33</v>
+        <v>1.390399754907572e-33</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.22665198328137</v>
       </c>
       <c r="C650" t="n">
-        <v>1.385162313338666e-33</v>
+        <v>1.385341009197089e-33</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.227637818334969</v>
       </c>
       <c r="C651" t="n">
-        <v>1.381256750350401e-33</v>
+        <v>1.380715282542209e-33</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.228623653388569</v>
       </c>
       <c r="C652" t="n">
-        <v>1.377438415084839e-33</v>
+        <v>1.376184841457749e-33</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.229609488442168</v>
       </c>
       <c r="C653" t="n">
-        <v>1.37335676826764e-33</v>
+        <v>1.371411952458538e-33</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.230595323495767</v>
       </c>
       <c r="C654" t="n">
-        <v>1.368661270624461e-33</v>
+        <v>1.366058882059409e-33</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.231581158549367</v>
       </c>
       <c r="C655" t="n">
-        <v>1.363001382880951e-33</v>
+        <v>1.359787896775176e-33</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.232566993602966</v>
       </c>
       <c r="C656" t="n">
-        <v>1.356026565762775e-33</v>
+        <v>1.352261263120677e-33</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.233552828656565</v>
       </c>
       <c r="C657" t="n">
-        <v>1.347386279995574e-33</v>
+        <v>1.343141247610725e-33</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.234538663710165</v>
       </c>
       <c r="C658" t="n">
-        <v>1.33672998630501e-33</v>
+        <v>1.33209011676015e-33</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.235524498763763</v>
       </c>
       <c r="C659" t="n">
-        <v>1.323726967105523e-33</v>
+        <v>1.31878933525909e-33</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.236510333817363</v>
       </c>
       <c r="C660" t="n">
-        <v>1.308394506662481e-33</v>
+        <v>1.303257422859678e-33</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.237496168870963</v>
       </c>
       <c r="C661" t="n">
-        <v>1.291046780106358e-33</v>
+        <v>1.285800451143677e-33</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.238482003924561</v>
       </c>
       <c r="C662" t="n">
-        <v>1.2720074811397e-33</v>
+        <v>1.26673371084754e-33</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.239467838978161</v>
       </c>
       <c r="C663" t="n">
-        <v>1.251600303464996e-33</v>
+        <v>1.246372492707672e-33</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.240453674031761</v>
       </c>
       <c r="C664" t="n">
-        <v>1.230148940784786e-33</v>
+        <v>1.225032087460526e-33</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.241439509085359</v>
       </c>
       <c r="C665" t="n">
-        <v>1.207977086801617e-33</v>
+        <v>1.20302778584256e-33</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.242425344138959</v>
       </c>
       <c r="C666" t="n">
-        <v>1.185408435217973e-33</v>
+        <v>1.180674878590171e-33</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.243411179192558</v>
       </c>
       <c r="C667" t="n">
-        <v>1.162766679736419e-33</v>
+        <v>1.158288656439838e-33</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.244397014246157</v>
       </c>
       <c r="C668" t="n">
-        <v>1.140375514059439e-33</v>
+        <v>1.136184410127957e-33</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.245382849299757</v>
       </c>
       <c r="C669" t="n">
-        <v>1.118558631889579e-33</v>
+        <v>1.114677430390986e-33</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.246368684353356</v>
       </c>
       <c r="C670" t="n">
-        <v>1.097639726929381e-33</v>
+        <v>1.09408300796538e-33</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.247354519406955</v>
       </c>
       <c r="C671" t="n">
-        <v>1.077942492881332e-33</v>
+        <v>1.07471643358754e-33</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.248340354460555</v>
       </c>
       <c r="C672" t="n">
-        <v>1.059790623447977e-33</v>
+        <v>1.056892997993923e-33</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.249326189514154</v>
       </c>
       <c r="C673" t="n">
-        <v>1.04350650220785e-33</v>
+        <v>1.040926678522364e-33</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.250312024567753</v>
       </c>
       <c r="C674" t="n">
-        <v>1.02918761528279e-33</v>
+        <v>1.026905992930161e-33</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.251297859621353</v>
       </c>
       <c r="C675" t="n">
-        <v>1.016453432876532e-33</v>
+        <v>1.014440248271349e-33</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.252283694674952</v>
       </c>
       <c r="C676" t="n">
-        <v>1.004862275574367e-33</v>
+        <v>1.003077449140046e-33</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.253269529728551</v>
       </c>
       <c r="C677" t="n">
-        <v>9.939724639615581e-34</v>
+        <v>9.92365600130341e-34</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.25425536478215</v>
       </c>
       <c r="C678" t="n">
-        <v>9.833423186234053e-34</v>
+        <v>9.818527058363631e-34</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.25524119983575</v>
       </c>
       <c r="C679" t="n">
-        <v>9.725301601451723e-34</v>
+        <v>9.710867708522018e-34</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.256227034889349</v>
       </c>
       <c r="C680" t="n">
-        <v>9.610943091121502e-34</v>
+        <v>9.596157997719758e-34</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.257212869942949</v>
       </c>
       <c r="C681" t="n">
-        <v>9.485930861096203e-34</v>
+        <v>9.46987797189793e-34</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.258198704996548</v>
       </c>
       <c r="C682" t="n">
-        <v>9.346037453575934e-34</v>
+        <v>9.32771015379468e-34</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.259184540050147</v>
       </c>
       <c r="C683" t="n">
-        <v>9.192996353072402e-34</v>
+        <v>9.171711713826815e-34</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.260170375103746</v>
       </c>
       <c r="C684" t="n">
-        <v>9.035560086099043e-34</v>
+        <v>9.011446004733248e-34</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.261156210157345</v>
       </c>
       <c r="C685" t="n">
-        <v>8.882883908189429e-34</v>
+        <v>8.856907058746044e-34</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.262142045210945</v>
       </c>
       <c r="C686" t="n">
-        <v>8.744123074877571e-34</v>
+        <v>8.718088908097721e-34</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.263127880264544</v>
       </c>
       <c r="C687" t="n">
-        <v>8.62843284169742e-34</v>
+        <v>8.604985585020727e-34</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.264113715318143</v>
       </c>
       <c r="C688" t="n">
-        <v>8.544968464182635e-34</v>
+        <v>8.52759112174723e-34</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.265099550371743</v>
       </c>
       <c r="C689" t="n">
-        <v>8.501832520445683e-34</v>
+        <v>8.494748007989378e-34</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.266085385425342</v>
       </c>
       <c r="C690" t="n">
-        <v>8.489338158336446e-34</v>
+        <v>8.495838559866536e-34</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.267071220478941</v>
       </c>
       <c r="C691" t="n">
-        <v>8.482980597559895e-34</v>
+        <v>8.504035498827067e-34</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.268057055532541</v>
       </c>
       <c r="C692" t="n">
-        <v>8.457802910844347e-34</v>
+        <v>8.492016934714233e-34</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.26904289058614</v>
       </c>
       <c r="C693" t="n">
-        <v>8.388848170918199e-34</v>
+        <v>8.432460977371385e-34</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.270028725639739</v>
       </c>
       <c r="C694" t="n">
-        <v>8.258542927577148e-34</v>
+        <v>8.30602339050541e-34</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.271014560693338</v>
       </c>
       <c r="C695" t="n">
-        <v>8.082350475357991e-34</v>
+        <v>8.12905527647165e-34</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.272000395746938</v>
       </c>
       <c r="C696" t="n">
-        <v>7.884970435541361e-34</v>
+        <v>7.927887347104994e-34</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.272986230800537</v>
       </c>
       <c r="C697" t="n">
-        <v>7.691102859948942e-34</v>
+        <v>7.728850779428633e-34</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.273972065854136</v>
       </c>
       <c r="C698" t="n">
-        <v>7.521294925251643e-34</v>
+        <v>7.553881102655831e-34</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.274957900907736</v>
       </c>
       <c r="C699" t="n">
-        <v>7.377580064102673e-34</v>
+        <v>7.405317808221104e-34</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.275943735961335</v>
       </c>
       <c r="C700" t="n">
-        <v>7.256834486133945e-34</v>
+        <v>7.28004167877145e-34</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.276929571014934</v>
       </c>
       <c r="C701" t="n">
-        <v>7.155934182590331e-34</v>
+        <v>7.174933265800168e-34</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.277915406068534</v>
       </c>
       <c r="C702" t="n">
-        <v>7.071755144716438e-34</v>
+        <v>7.086873120800274e-34</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.278901241122133</v>
       </c>
       <c r="C703" t="n">
-        <v>7.001173363757159e-34</v>
+        <v>7.012741795265081e-34</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.279887076175732</v>
       </c>
       <c r="C704" t="n">
-        <v>6.941064830957325e-34</v>
+        <v>6.949419840687849e-34</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.280872911229332</v>
       </c>
       <c r="C705" t="n">
-        <v>6.88830553756163e-34</v>
+        <v>6.893787808561674e-34</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.28185874628293</v>
       </c>
       <c r="C706" t="n">
-        <v>6.839771474814958e-34</v>
+        <v>6.842726250379868e-34</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.28284458133653</v>
       </c>
       <c r="C707" t="n">
-        <v>6.792338633962014e-34</v>
+        <v>6.793115717635551e-34</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.28383041639013</v>
       </c>
       <c r="C708" t="n">
-        <v>6.742883006247633e-34</v>
+        <v>6.741836761821977e-34</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.284816251443729</v>
       </c>
       <c r="C709" t="n">
-        <v>6.688280582916604e-34</v>
+        <v>6.685769934432355e-34</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.285802086497328</v>
       </c>
       <c r="C710" t="n">
-        <v>6.625407355213779e-34</v>
+        <v>6.621795786959952e-34</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.286787921550927</v>
       </c>
       <c r="C711" t="n">
-        <v>6.551249118214618e-34</v>
+        <v>6.546904187732411e-34</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.287773756604526</v>
       </c>
       <c r="C712" t="n">
-        <v>6.465443220379225e-34</v>
+        <v>6.460724798430427e-34</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.288759591658126</v>
       </c>
       <c r="C713" t="n">
-        <v>6.370350550389923e-34</v>
+        <v>6.36559874165305e-34</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.289745426711725</v>
       </c>
       <c r="C714" t="n">
-        <v>6.268456201366238e-34</v>
+        <v>6.263990793571465e-34</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.290731261765324</v>
       </c>
       <c r="C715" t="n">
-        <v>6.162245266427711e-34</v>
+        <v>6.158365730356887e-34</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.291717096818924</v>
       </c>
       <c r="C716" t="n">
-        <v>6.054202838693603e-34</v>
+        <v>6.051188328180241e-34</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.292702931872523</v>
       </c>
       <c r="C717" t="n">
-        <v>5.946814011283455e-34</v>
+        <v>5.944923363212735e-34</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.293688766926122</v>
       </c>
       <c r="C718" t="n">
-        <v>5.84256387731681e-34</v>
+        <v>5.84203561162558e-34</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.294674601979722</v>
       </c>
       <c r="C719" t="n">
-        <v>5.743937529912924e-34</v>
+        <v>5.744989849589701e-34</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.295660437033321</v>
       </c>
       <c r="C720" t="n">
-        <v>5.653420062191347e-34</v>
+        <v>5.65625085327631e-34</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.29664627208692</v>
       </c>
       <c r="C721" t="n">
-        <v>5.573496567271592e-34</v>
+        <v>5.578283398856591e-34</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.29763210714052</v>
       </c>
       <c r="C722" t="n">
-        <v>5.506652138272964e-34</v>
+        <v>5.513552262501516e-34</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.298617942194118</v>
       </c>
       <c r="C723" t="n">
-        <v>5.455371868315028e-34</v>
+        <v>5.464522220382314e-34</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.299603777247718</v>
       </c>
       <c r="C724" t="n">
-        <v>5.421604612801753e-34</v>
+        <v>5.433103159529037e-34</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.300589612301318</v>
       </c>
       <c r="C725" t="n">
-        <v>5.404261453526655e-34</v>
+        <v>5.41806153348912e-34</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.301575447354916</v>
       </c>
       <c r="C726" t="n">
-        <v>5.401185001245617e-34</v>
+        <v>5.417058161202035e-34</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.302561282408516</v>
       </c>
       <c r="C727" t="n">
-        <v>5.410216685844371e-34</v>
+        <v>5.427752639664068e-34</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.303547117462116</v>
       </c>
       <c r="C728" t="n">
-        <v>5.429197937208658e-34</v>
+        <v>5.447804565871511e-34</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.304532952515714</v>
       </c>
       <c r="C729" t="n">
-        <v>5.455970185224186e-34</v>
+        <v>5.474873536820622e-34</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.305518787569314</v>
       </c>
       <c r="C730" t="n">
-        <v>5.488374859776736e-34</v>
+        <v>5.506619149507735e-34</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.306504622622914</v>
       </c>
       <c r="C731" t="n">
-        <v>5.524253390752024e-34</v>
+        <v>5.540701000929116e-34</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.307490457676512</v>
       </c>
       <c r="C732" t="n">
-        <v>5.561447304446316e-34</v>
+        <v>5.574778787724075e-34</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.308476292730112</v>
       </c>
       <c r="C733" t="n">
-        <v>5.615202172783423e-34</v>
+        <v>5.624499781273451e-34</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.309462127783711</v>
       </c>
       <c r="C734" t="n">
-        <v>5.766719057296808e-34</v>
+        <v>5.773678121992897e-34</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.31044796283731</v>
       </c>
       <c r="C735" t="n">
-        <v>6.111954696453165e-34</v>
+        <v>6.121374699367621e-34</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.31143379789091</v>
       </c>
       <c r="C736" t="n">
-        <v>6.690917261624739e-34</v>
+        <v>6.708589325139249e-34</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.312419632944509</v>
       </c>
       <c r="C737" t="n">
-        <v>7.454507537849032e-34</v>
+        <v>7.483849900611077e-34</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.313405467998108</v>
       </c>
       <c r="C738" t="n">
-        <v>8.345675207822281e-34</v>
+        <v>8.387433006361654e-34</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.314391303051708</v>
       </c>
       <c r="C739" t="n">
-        <v>9.307369954238689e-34</v>
+        <v>9.359615222967462e-34</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.315377138105307</v>
       </c>
       <c r="C740" t="n">
-        <v>1.028254145979222e-33</v>
+        <v>1.034067313100475e-33</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.316362973158906</v>
       </c>
       <c r="C741" t="n">
-        <v>1.121413762914416e-33</v>
+        <v>1.127091956886894e-33</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.317348808212506</v>
       </c>
       <c r="C742" t="n">
-        <v>1.204499300002478e-33</v>
+        <v>1.209297916104398e-33</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.318334643266105</v>
       </c>
       <c r="C743" t="n">
-        <v>1.271776243591415e-33</v>
+        <v>1.275314046151441e-33</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.319320478319704</v>
       </c>
       <c r="C744" t="n">
-        <v>1.317508487270897e-33</v>
+        <v>1.319801682066346e-33</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.320306313373303</v>
       </c>
       <c r="C745" t="n">
-        <v>1.335959924630395e-33</v>
+        <v>1.337422158887242e-33</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.321292148426902</v>
       </c>
       <c r="C746" t="n">
-        <v>1.322435913468435e-33</v>
+        <v>1.323834131655665e-33</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.322277983480502</v>
       </c>
       <c r="C747" t="n">
-        <v>1.282353049365731e-33</v>
+        <v>1.284378911438887e-33</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.323263818534102</v>
       </c>
       <c r="C748" t="n">
-        <v>1.226813799794168e-33</v>
+        <v>1.229842675987618e-33</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.3242496535877</v>
       </c>
       <c r="C749" t="n">
-        <v>1.166983995984075e-33</v>
+        <v>1.171072281031937e-33</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.3252354886413</v>
       </c>
       <c r="C750" t="n">
-        <v>1.114029469165612e-33</v>
+        <v>1.118914582301758e-33</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.326221323694899</v>
       </c>
       <c r="C751" t="n">
-        <v>1.078126676739422e-33</v>
+        <v>1.083252918006462e-33</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.327207158748498</v>
       </c>
       <c r="C752" t="n">
-        <v>1.058322609059894e-33</v>
+        <v>1.063132016950841e-33</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.328192993802098</v>
       </c>
       <c r="C753" t="n">
-        <v>1.046656738645699e-33</v>
+        <v>1.050772224669461e-33</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.329178828855697</v>
       </c>
       <c r="C754" t="n">
-        <v>1.03505926905498e-33</v>
+        <v>1.038287473372846e-33</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.330164663909296</v>
       </c>
       <c r="C755" t="n">
-        <v>1.015460403845855e-33</v>
+        <v>1.01779169527149e-33</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.331150498962896</v>
       </c>
       <c r="C756" t="n">
-        <v>9.799068202644175e-34</v>
+        <v>9.815132918306238e-34</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.332136334016495</v>
       </c>
       <c r="C757" t="n">
-        <v>9.257870226074395e-34</v>
+        <v>9.269305623423864e-34</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.333122169070094</v>
       </c>
       <c r="C758" t="n">
-        <v>8.579401581588773e-34</v>
+        <v>8.5884422856905e-34</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.334108004123694</v>
       </c>
       <c r="C759" t="n">
-        <v>7.817583031562945e-34</v>
+        <v>7.825984256938873e-34</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.335093839177293</v>
       </c>
       <c r="C760" t="n">
-        <v>7.026335338372834e-34</v>
+        <v>7.035372889001998e-34</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.336079674230892</v>
       </c>
       <c r="C761" t="n">
-        <v>6.259579264392204e-34</v>
+        <v>6.270049533710725e-34</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.337065509284491</v>
       </c>
       <c r="C762" t="n">
-        <v>5.571235571997553e-34</v>
+        <v>5.583455542898635e-34</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.338051344338091</v>
       </c>
       <c r="C763" t="n">
-        <v>5.014366322576559e-34</v>
+        <v>5.028180024073413e-34</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.33903717939169</v>
       </c>
       <c r="C764" t="n">
-        <v>4.612053611424738e-34</v>
+        <v>4.627057541164905e-34</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.340023014445289</v>
       </c>
       <c r="C765" t="n">
-        <v>4.350295714142561e-34</v>
+        <v>4.366117675543686e-34</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.341008849498889</v>
       </c>
       <c r="C766" t="n">
-        <v>4.212791263935963e-34</v>
+        <v>4.229107657438524e-34</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.341994684552488</v>
       </c>
       <c r="C767" t="n">
-        <v>4.183238894011631e-34</v>
+        <v>4.199774717078939e-34</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.342980519606087</v>
       </c>
       <c r="C768" t="n">
-        <v>4.245337237575866e-34</v>
+        <v>4.261866084694065e-34</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.343966354659687</v>
       </c>
       <c r="C769" t="n">
-        <v>4.382784927835185e-34</v>
+        <v>4.399128990513247e-34</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.344952189713286</v>
       </c>
       <c r="C770" t="n">
-        <v>4.579280597995966e-34</v>
+        <v>4.595310664765698e-34</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.345938024766885</v>
       </c>
       <c r="C771" t="n">
-        <v>4.818522881264367e-34</v>
+        <v>4.83415833768041e-34</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.346923859820484</v>
       </c>
       <c r="C772" t="n">
-        <v>5.084210410847227e-34</v>
+        <v>5.099419239487049e-34</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.347909694874083</v>
       </c>
       <c r="C773" t="n">
-        <v>5.360041819950493e-34</v>
+        <v>5.374840600414399e-34</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.348895529927683</v>
       </c>
       <c r="C774" t="n">
-        <v>5.629715741781063e-34</v>
+        <v>5.644169650692187e-34</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.349881364981282</v>
       </c>
       <c r="C775" t="n">
-        <v>5.876930809545086e-34</v>
+        <v>5.891153620549396e-34</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.350867200034882</v>
       </c>
       <c r="C776" t="n">
-        <v>6.085654508691535e-34</v>
+        <v>6.099806670757313e-34</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.351853035088481</v>
       </c>
       <c r="C777" t="n">
-        <v>6.247147211437518e-34</v>
+        <v>6.26138372080122e-34</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.35283887014208</v>
       </c>
       <c r="C778" t="n">
-        <v>6.360637495411181e-34</v>
+        <v>6.375050940484569e-34</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.353824705195679</v>
       </c>
       <c r="C779" t="n">
-        <v>6.425758186362379e-34</v>
+        <v>6.440375858250117e-34</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.354810540249279</v>
       </c>
       <c r="C780" t="n">
-        <v>6.442142110041284e-34</v>
+        <v>6.456926002540942e-34</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.355796375302878</v>
       </c>
       <c r="C781" t="n">
-        <v>6.40942209219787e-34</v>
+        <v>6.424268901799923e-34</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.356782210356477</v>
       </c>
       <c r="C782" t="n">
-        <v>6.327230958582292e-34</v>
+        <v>6.341972084470117e-34</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.357768045410077</v>
       </c>
       <c r="C783" t="n">
-        <v>6.195201534944457e-34</v>
+        <v>6.209603078994332e-34</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.358753880463676</v>
       </c>
       <c r="C784" t="n">
-        <v>6.012971130918087e-34</v>
+        <v>6.026733938015084e-34</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.359739715517275</v>
       </c>
       <c r="C785" t="n">
-        <v>5.783742010989316e-34</v>
+        <v>5.796533722563226e-34</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.360725550570875</v>
       </c>
       <c r="C786" t="n">
-        <v>5.520686792715563e-34</v>
+        <v>5.532231493057206e-34</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.361711385624474</v>
       </c>
       <c r="C787" t="n">
-        <v>5.238707774377971e-34</v>
+        <v>5.2488015426968e-34</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.362697220678073</v>
       </c>
       <c r="C788" t="n">
-        <v>4.952707254257749e-34</v>
+        <v>4.961218164681855e-34</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.363683055731673</v>
       </c>
       <c r="C789" t="n">
-        <v>4.677587530635327e-34</v>
+        <v>4.684455652211424e-34</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.364668890785271</v>
       </c>
       <c r="C790" t="n">
-        <v>4.428250901792124e-34</v>
+        <v>4.433488298485564e-34</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.365654725838871</v>
       </c>
       <c r="C791" t="n">
-        <v>4.219599666008637e-34</v>
+        <v>4.223290396703399e-34</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.366640560892471</v>
       </c>
       <c r="C792" t="n">
-        <v>4.066536121566057e-34</v>
+        <v>4.068836240064756e-34</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.367626395946069</v>
       </c>
       <c r="C793" t="n">
-        <v>3.983962566745377e-34</v>
+        <v>3.985100121769261e-34</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.368612230999669</v>
       </c>
       <c r="C794" t="n">
-        <v>3.986781299827395e-34</v>
+        <v>3.987056335016337e-34</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.369598066053269</v>
       </c>
       <c r="C795" t="n">
-        <v>4.089894619093169e-34</v>
+        <v>4.08967917300568e-34</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.370583901106867</v>
       </c>
       <c r="C796" t="n">
-        <v>4.308204822823406e-34</v>
+        <v>4.307942928936627e-34</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.371569736160467</v>
       </c>
       <c r="C797" t="n">
-        <v>4.656614209299439e-34</v>
+        <v>4.656821896009145e-34</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.372555571214066</v>
       </c>
       <c r="C798" t="n">
-        <v>5.146646325938781e-34</v>
+        <v>5.147898120701118e-34</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.373541406267665</v>
       </c>
       <c r="C799" t="n">
-        <v>5.747546127551398e-34</v>
+        <v>5.750306182077914e-34</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.374527241321265</v>
       </c>
       <c r="C800" t="n">
-        <v>6.399786154053621e-34</v>
+        <v>6.404293317686354e-34</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.375513076374864</v>
       </c>
       <c r="C801" t="n">
-        <v>7.043287486200523e-34</v>
+        <v>7.049553103200128e-34</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.376498911428463</v>
       </c>
       <c r="C802" t="n">
-        <v>7.617971204749443e-34</v>
+        <v>7.625779114295195e-34</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.377484746482063</v>
       </c>
       <c r="C803" t="n">
-        <v>8.063758390455921e-34</v>
+        <v>8.072664926645709e-34</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.378470581535661</v>
       </c>
       <c r="C804" t="n">
-        <v>8.329484693304161e-34</v>
+        <v>8.338862511722834e-34</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.379456416589261</v>
       </c>
       <c r="C805" t="n">
-        <v>8.445478897602866e-34</v>
+        <v>8.454917618845085e-34</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.380442251642861</v>
       </c>
       <c r="C806" t="n">
-        <v>8.48574420716804e-34</v>
+        <v>8.495265132758041e-34</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.381428086696459</v>
       </c>
       <c r="C807" t="n">
-        <v>8.876163153246204e-34</v>
+        <v>8.886624862686799e-34</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.382413921750059</v>
       </c>
       <c r="C808" t="n">
-        <v>1.042337524829066e-33</v>
+        <v>1.043661423937585e-33</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.383399756803659</v>
       </c>
       <c r="C809" t="n">
-        <v>1.240641002766711e-33</v>
+        <v>1.242300852800106e-33</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.384385591857257</v>
       </c>
       <c r="C810" t="n">
-        <v>1.393756627590975e-33</v>
+        <v>1.395662076365721e-33</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.385371426910857</v>
       </c>
       <c r="C811" t="n">
-        <v>1.421868436485739e-33</v>
+        <v>1.423796670199551e-33</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.386357261964456</v>
       </c>
       <c r="C812" t="n">
-        <v>1.339550541757052e-33</v>
+        <v>1.341316143265924e-33</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.387343097018055</v>
       </c>
       <c r="C813" t="n">
-        <v>1.217962669360482e-33</v>
+        <v>1.219519445990849e-33</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.388328932071655</v>
       </c>
       <c r="C814" t="n">
-        <v>1.128433418060154e-33</v>
+        <v>1.129874440314015e-33</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.389314767125255</v>
       </c>
       <c r="C815" t="n">
-        <v>1.097394321180708e-33</v>
+        <v>1.098851224391446e-33</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.390300602178853</v>
       </c>
       <c r="C816" t="n">
-        <v>1.077703699942069e-33</v>
+        <v>1.079182426026946e-33</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.391286437232453</v>
       </c>
       <c r="C817" t="n">
-        <v>1.045349929446995e-33</v>
+        <v>1.04679565484293e-33</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.392272272286052</v>
       </c>
       <c r="C818" t="n">
-        <v>1.001904830843633e-33</v>
+        <v>1.003270354324011e-33</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.393258107339651</v>
       </c>
       <c r="C819" t="n">
-        <v>9.49741465470121e-34</v>
+        <v>9.509893499620961e-34</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.394243942393251</v>
       </c>
       <c r="C820" t="n">
-        <v>8.912328946647125e-34</v>
+        <v>8.923354672492052e-34</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.39522977744685</v>
       </c>
       <c r="C821" t="n">
-        <v>8.287521797656839e-34</v>
+        <v>8.296915316773823e-34</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.396215612500449</v>
       </c>
       <c r="C822" t="n">
-        <v>7.646723821111398e-34</v>
+        <v>7.654403687384988e-34</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.397201447554049</v>
       </c>
       <c r="C823" t="n">
-        <v>7.012846583866296e-34</v>
+        <v>7.018827303883385e-34</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.398187282607648</v>
       </c>
       <c r="C824" t="n">
-        <v>6.397054291592896e-34</v>
+        <v>6.401422102137697e-34</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.399173117661247</v>
       </c>
       <c r="C825" t="n">
-        <v>5.801720980240382e-34</v>
+        <v>5.804615723378811e-34</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.400158952714847</v>
       </c>
       <c r="C826" t="n">
-        <v>5.229008713250535e-34</v>
+        <v>5.230623399252884e-34</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.401144787768446</v>
       </c>
       <c r="C827" t="n">
-        <v>4.681079554065042e-34</v>
+        <v>4.68166036140599e-34</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.402130622822045</v>
       </c>
       <c r="C828" t="n">
-        <v>4.16009556612413e-34</v>
+        <v>4.159941841482729e-34</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.403116457875644</v>
       </c>
       <c r="C829" t="n">
-        <v>3.668218812869942e-34</v>
+        <v>3.667683071129628e-34</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.404102292929243</v>
       </c>
       <c r="C830" t="n">
-        <v>3.207611357742798e-34</v>
+        <v>3.207099281991386e-34</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.405088127982843</v>
       </c>
       <c r="C831" t="n">
-        <v>2.780440268297047e-34</v>
+        <v>2.780410385384471e-34</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.406073963036442</v>
       </c>
       <c r="C832" t="n">
-        <v>2.390291512976377e-34</v>
+        <v>2.391163198900361e-34</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.407059798090041</v>
       </c>
       <c r="C833" t="n">
-        <v>2.044113865900595e-34</v>
+        <v>2.046049317885457e-34</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.408045633143641</v>
       </c>
       <c r="C834" t="n">
-        <v>1.749343305357273e-34</v>
+        <v>1.752215953911631e-34</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.40903146819724</v>
       </c>
       <c r="C835" t="n">
-        <v>1.513415809633798e-34</v>
+        <v>1.516810318550575e-34</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.410017303250839</v>
       </c>
       <c r="C836" t="n">
-        <v>1.343138501522771e-34</v>
+        <v>1.346368499061475e-34</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.411003138304439</v>
       </c>
       <c r="C837" t="n">
-        <v>1.234748632467268e-34</v>
+        <v>1.237154738988897e-34</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.411988973358038</v>
       </c>
       <c r="C838" t="n">
-        <v>1.17570920429943e-34</v>
+        <v>1.176906430628564e-34</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.412974808411637</v>
       </c>
       <c r="C839" t="n">
-        <v>1.153217394749436e-34</v>
+        <v>1.153102637339099e-34</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.413960643465236</v>
       </c>
       <c r="C840" t="n">
-        <v>1.154470381547629e-34</v>
+        <v>1.153222422479293e-34</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.414946478518836</v>
       </c>
       <c r="C841" t="n">
-        <v>1.166665342424297e-34</v>
+        <v>1.164744849407878e-34</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.415932313572435</v>
       </c>
       <c r="C842" t="n">
-        <v>1.176999455109724e-34</v>
+        <v>1.175148981483585e-34</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.416918148626034</v>
       </c>
       <c r="C843" t="n">
-        <v>1.173811316650628e-34</v>
+        <v>1.173007343228468e-34</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.417903983679634</v>
       </c>
       <c r="C844" t="n">
-        <v>1.157068060028562e-34</v>
+        <v>1.158032407690072e-34</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.418889818733233</v>
       </c>
       <c r="C845" t="n">
-        <v>1.133527126153886e-34</v>
+        <v>1.136441652606386e-34</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.419875653786832</v>
       </c>
       <c r="C846" t="n">
-        <v>1.110031048272611e-34</v>
+        <v>1.114534072790669e-34</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.420861488840432</v>
       </c>
       <c r="C847" t="n">
-        <v>1.093422359630682e-34</v>
+        <v>1.098608663056116e-34</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.421847323894031</v>
       </c>
       <c r="C848" t="n">
-        <v>1.090508860965419e-34</v>
+        <v>1.094933021841843e-34</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.42283315894763</v>
       </c>
       <c r="C849" t="n">
-        <v>1.102763972938602e-34</v>
+        <v>1.104952746557429e-34</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.42381899400123</v>
       </c>
       <c r="C850" t="n">
-        <v>1.120628399206932e-34</v>
+        <v>1.120140434563009e-34</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.424804829054828</v>
       </c>
       <c r="C851" t="n">
-        <v>1.133664877745186e-34</v>
+        <v>1.131168650451543e-34</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.425790664108428</v>
       </c>
       <c r="C852" t="n">
-        <v>1.138219202839031e-34</v>
+        <v>1.134752711821934e-34</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.426776499162028</v>
       </c>
       <c r="C853" t="n">
-        <v>1.135599783351071e-34</v>
+        <v>1.132028930700635e-34</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.427762334215627</v>
       </c>
       <c r="C854" t="n">
-        <v>1.127228580009759e-34</v>
+        <v>1.124234777920275e-34</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.428748169269226</v>
       </c>
       <c r="C855" t="n">
-        <v>1.114527553543558e-34</v>
+        <v>1.112607724313499e-34</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.429734004322825</v>
       </c>
       <c r="C856" t="n">
-        <v>1.098918664680894e-34</v>
+        <v>1.098385240712916e-34</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.430719839376424</v>
       </c>
       <c r="C857" t="n">
-        <v>1.081823874150245e-34</v>
+        <v>1.082804797951181e-34</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.431705674430024</v>
       </c>
       <c r="C858" t="n">
-        <v>1.064657409211975e-34</v>
+        <v>1.067097160031569e-34</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.432691509483623</v>
       </c>
       <c r="C859" t="n">
-        <v>1.04831056955844e-34</v>
+        <v>1.052039583433306e-34</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.433677344537222</v>
       </c>
       <c r="C860" t="n">
-        <v>1.032828290527923e-34</v>
+        <v>1.037675317430529e-34</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.434663179590822</v>
       </c>
       <c r="C861" t="n">
-        <v>1.018178347381063e-34</v>
+        <v>1.023980694427987e-34</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.435649014644421</v>
       </c>
       <c r="C862" t="n">
-        <v>1.004328515378545e-34</v>
+        <v>1.010932046830465e-34</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.43663484969802</v>
       </c>
       <c r="C863" t="n">
-        <v>9.91246569781047e-35</v>
+        <v>9.985057070427494e-35</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.43762068475162</v>
       </c>
       <c r="C864" t="n">
-        <v>9.78900285849215e-35</v>
+        <v>9.866780074695901e-35</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.438606519805219</v>
       </c>
       <c r="C865" t="n">
-        <v>9.67257438843729e-35</v>
+        <v>9.754252805157728e-35</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.439592354858818</v>
       </c>
       <c r="C866" t="n">
-        <v>9.562858040252674e-35</v>
+        <v>9.647238585860809e-35</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.440578189912418</v>
       </c>
       <c r="C867" t="n">
-        <v>9.459531566544787e-35</v>
+        <v>9.545500740852682e-35</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.441564024966016</v>
       </c>
       <c r="C868" t="n">
-        <v>9.3622727199205e-35</v>
+        <v>9.448802594181272e-35</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.442549860019616</v>
       </c>
       <c r="C869" t="n">
-        <v>9.270759252986319e-35</v>
+        <v>9.356907469894138e-35</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.443535695073216</v>
       </c>
       <c r="C870" t="n">
-        <v>9.184668918349025e-35</v>
+        <v>9.269578692039108e-35</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.444521530126814</v>
       </c>
       <c r="C871" t="n">
-        <v>9.103679468615367e-35</v>
+        <v>9.18657958466399e-35</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.445507365180414</v>
       </c>
       <c r="C872" t="n">
-        <v>9.027468656391887e-35</v>
+        <v>9.107673471816374e-35</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.446493200234014</v>
       </c>
       <c r="C873" t="n">
-        <v>8.955714234285341e-35</v>
+        <v>9.03262367754407e-35</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.447479035287612</v>
       </c>
       <c r="C874" t="n">
-        <v>8.888093954902477e-35</v>
+        <v>8.961193525894879e-35</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.448464870341212</v>
       </c>
       <c r="C875" t="n">
-        <v>8.824285570849851e-35</v>
+        <v>8.89314634091641e-35</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.449450705394812</v>
       </c>
       <c r="C876" t="n">
-        <v>8.763966834734216e-35</v>
+        <v>8.828245446656463e-35</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.45043654044841</v>
       </c>
       <c r="C877" t="n">
-        <v>8.706815499162302e-35</v>
+        <v>8.766254167162831e-35</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.45142237550201</v>
       </c>
       <c r="C878" t="n">
-        <v>8.652509316740693e-35</v>
+        <v>8.706935826483141e-35</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.452408210555609</v>
       </c>
       <c r="C879" t="n">
-        <v>8.600726040076172e-35</v>
+        <v>8.650053748665233e-35</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.453394045609208</v>
       </c>
       <c r="C880" t="n">
-        <v>8.551143421775327e-35</v>
+        <v>8.595371257756745e-35</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.454379880662808</v>
       </c>
       <c r="C881" t="n">
-        <v>8.503439214444896e-35</v>
+        <v>8.542651677805463e-35</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.455365715716407</v>
       </c>
       <c r="C882" t="n">
-        <v>8.457291170691553e-35</v>
+        <v>8.491658332859124e-35</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.456351550770006</v>
       </c>
       <c r="C883" t="n">
-        <v>8.412377043122031e-35</v>
+        <v>8.442154546965512e-35</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.457337385823606</v>
       </c>
       <c r="C884" t="n">
-        <v>8.368374584342932e-35</v>
+        <v>8.39390364417227e-35</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.458323220877205</v>
       </c>
       <c r="C885" t="n">
-        <v>8.325030026765009e-35</v>
+        <v>8.346725254741206e-35</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.459309055930804</v>
       </c>
       <c r="C886" t="n">
-        <v>8.282470972679225e-35</v>
+        <v>8.300752583051263e-35</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.460294890984404</v>
       </c>
       <c r="C887" t="n">
-        <v>8.240957005218388e-35</v>
+        <v>8.256227352213784e-35</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.461280726038003</v>
       </c>
       <c r="C888" t="n">
-        <v>8.2007478350507e-35</v>
+        <v>8.213391390203666e-35</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.462266561091602</v>
       </c>
       <c r="C889" t="n">
-        <v>8.162103172844262e-35</v>
+        <v>8.17248652499569e-35</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.463252396145202</v>
       </c>
       <c r="C890" t="n">
-        <v>8.125282729267281e-35</v>
+        <v>8.133754584564754e-35</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.4642382311988</v>
       </c>
       <c r="C891" t="n">
-        <v>8.09054621498796e-35</v>
+        <v>8.097437396885755e-35</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.4652240662524</v>
       </c>
       <c r="C892" t="n">
-        <v>8.058153340674409e-35</v>
+        <v>8.063776789933482e-35</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.466209901306</v>
       </c>
       <c r="C893" t="n">
-        <v>8.028363816994829e-35</v>
+        <v>8.03301459168283e-35</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.467195736359598</v>
       </c>
       <c r="C894" t="n">
-        <v>8.001437354617418e-35</v>
+        <v>8.00539263010868e-35</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.468181571413198</v>
       </c>
       <c r="C895" t="n">
-        <v>7.977633664210297e-35</v>
+        <v>7.981152733185846e-35</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.469167406466797</v>
       </c>
       <c r="C896" t="n">
-        <v>7.957212456441677e-35</v>
+        <v>7.960536728889226e-35</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.470153241520396</v>
       </c>
       <c r="C897" t="n">
-        <v>7.940433441979701e-35</v>
+        <v>7.943786445193649e-35</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.471139076573996</v>
       </c>
       <c r="C898" t="n">
-        <v>7.927556331492552e-35</v>
+        <v>7.931143710073988e-35</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.472124911627595</v>
       </c>
       <c r="C899" t="n">
-        <v>7.918840835648412e-35</v>
+        <v>7.922850351505112e-35</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.473110746681194</v>
       </c>
       <c r="C900" t="n">
-        <v>7.914546665115437e-35</v>
+        <v>7.919148197461862e-35</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.474096581734794</v>
       </c>
       <c r="C901" t="n">
-        <v>7.914933530561804e-35</v>
+        <v>7.920279075919112e-35</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.475082416788393</v>
       </c>
       <c r="C902" t="n">
-        <v>7.920261142655683e-35</v>
+        <v>7.926484814851712e-35</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.476068251841992</v>
       </c>
       <c r="C903" t="n">
-        <v>7.93078921206525e-35</v>
+        <v>7.938007242234529e-35</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.477054086895592</v>
       </c>
       <c r="C904" t="n">
-        <v>7.94677744945868e-35</v>
+        <v>7.955088186042425e-35</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.478039921949191</v>
       </c>
       <c r="C905" t="n">
-        <v>7.968485565504119e-35</v>
+        <v>7.977969474250232e-35</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.47902575700279</v>
       </c>
       <c r="C906" t="n">
-        <v>7.996173270869777e-35</v>
+        <v>8.006892934832855e-35</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.480011592056389</v>
       </c>
       <c r="C907" t="n">
-        <v>8.030100276223776e-35</v>
+        <v>8.042100395765096e-35</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.480997427109989</v>
       </c>
       <c r="C908" t="n">
-        <v>8.070526292234348e-35</v>
+        <v>8.083833685021881e-35</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.481983262163588</v>
       </c>
       <c r="C909" t="n">
-        <v>8.117711029569637e-35</v>
+        <v>8.13233463057804e-35</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.482969097217187</v>
       </c>
       <c r="C910" t="n">
-        <v>8.171914198897765e-35</v>
+        <v>8.187845060408382e-35</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.483954932270787</v>
       </c>
       <c r="C911" t="n">
-        <v>8.233395510886998e-35</v>
+        <v>8.250606802487861e-35</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.484940767324386</v>
       </c>
       <c r="C912" t="n">
-        <v>8.302414676205464e-35</v>
+        <v>8.320861684791295e-35</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.485926602377985</v>
       </c>
       <c r="C913" t="n">
-        <v>8.37923140552126e-35</v>
+        <v>8.398851535293468e-35</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.486912437431585</v>
       </c>
       <c r="C914" t="n">
-        <v>8.464105409502696e-35</v>
+        <v>8.484818181969379e-35</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.487898272485184</v>
       </c>
       <c r="C915" t="n">
-        <v>8.55729639881788e-35</v>
+        <v>8.579003452793822e-35</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.488884107538783</v>
       </c>
       <c r="C916" t="n">
-        <v>8.659064084134886e-35</v>
+        <v>8.681649175741561e-35</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.489869942592382</v>
       </c>
       <c r="C917" t="n">
-        <v>8.769668176122071e-35</v>
+        <v>8.79299717878764e-35</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.490855777645981</v>
       </c>
       <c r="C918" t="n">
-        <v>8.889368385447405e-35</v>
+        <v>8.913289289906713e-35</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.491841612699581</v>
       </c>
       <c r="C919" t="n">
-        <v>9.018424422779275e-35</v>
+        <v>9.042767337073866e-35</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.49282744775318</v>
       </c>
       <c r="C920" t="n">
-        <v>9.157349284898715e-35</v>
+        <v>9.181931175104936e-35</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.49381328280678</v>
       </c>
       <c r="C921" t="n">
-        <v>9.307852759555624e-35</v>
+        <v>9.332499849988638e-35</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.494799117860379</v>
       </c>
       <c r="C922" t="n">
-        <v>9.471997773079812e-35</v>
+        <v>9.496552155949303e-35</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.495784952913978</v>
       </c>
       <c r="C923" t="n">
-        <v>9.651847302986258e-35</v>
+        <v>9.676166939354431e-35</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.496770787967577</v>
       </c>
       <c r="C924" t="n">
-        <v>9.849464326789298e-35</v>
+        <v>9.873423046570893e-35</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.497756623021177</v>
       </c>
       <c r="C925" t="n">
-        <v>1.006691182200397e-34</v>
+        <v>1.009039932396625e-34</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.498742458074776</v>
       </c>
       <c r="C926" t="n">
-        <v>1.030625276614477e-34</v>
+        <v>1.032917461790753e-34</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.499728293128375</v>
       </c>
       <c r="C927" t="n">
-        <v>1.056955013672613e-34</v>
+        <v>1.05918277747617e-34</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.500714128181975</v>
       </c>
       <c r="C928" t="n">
-        <v>1.08588669112632e-34</v>
+        <v>1.088043764089642e-34</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.501699963235574</v>
       </c>
       <c r="C929" t="n">
-        <v>1.117626606727043e-34</v>
+        <v>1.119708306267868e-34</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.502685798289173</v>
       </c>
       <c r="C930" t="n">
-        <v>1.152381058226215e-34</v>
+        <v>1.154384288647535e-34</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.503671633342773</v>
       </c>
       <c r="C931" t="n">
-        <v>1.190327025134799e-34</v>
+        <v>1.19225020833945e-34</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.504657468396372</v>
       </c>
       <c r="C932" t="n">
-        <v>1.231117792117177e-34</v>
+        <v>1.232959630002511e-34</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.505643303449971</v>
       </c>
       <c r="C933" t="n">
-        <v>1.273955057331084e-34</v>
+        <v>1.275713464591402e-34</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.506629138503571</v>
       </c>
       <c r="C934" t="n">
-        <v>1.318025721650043e-34</v>
+        <v>1.319697790807377e-34</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.507614973557169</v>
       </c>
       <c r="C935" t="n">
-        <v>1.362516685947426e-34</v>
+        <v>1.364098687351538e-34</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.508600808610769</v>
       </c>
       <c r="C936" t="n">
-        <v>1.406614851096761e-34</v>
+        <v>1.408102232925144e-34</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.509586643664369</v>
       </c>
       <c r="C937" t="n">
-        <v>1.449507117971454e-34</v>
+        <v>1.450894506229334e-34</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.510572478717967</v>
       </c>
       <c r="C938" t="n">
-        <v>1.490380387444918e-34</v>
+        <v>1.491661585965252e-34</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.511558313771567</v>
       </c>
       <c r="C939" t="n">
-        <v>1.528421560390674e-34</v>
+        <v>1.529589550834151e-34</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.512544148825167</v>
       </c>
       <c r="C940" t="n">
-        <v>1.562817537682132e-34</v>
+        <v>1.563864479537171e-34</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.513529983878765</v>
       </c>
       <c r="C941" t="n">
-        <v>1.592755220192714e-34</v>
+        <v>1.593672450775468e-34</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.514515818932365</v>
       </c>
       <c r="C942" t="n">
-        <v>1.617421508795922e-34</v>
+        <v>1.618199543250274e-34</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.515501653985964</v>
       </c>
       <c r="C943" t="n">
-        <v>1.636003304365175e-34</v>
+        <v>1.636631835662738e-34</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.516487489039563</v>
       </c>
       <c r="C944" t="n">
-        <v>1.647687507773913e-34</v>
+        <v>1.648155406714034e-34</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.517473324093163</v>
       </c>
       <c r="C945" t="n">
-        <v>1.651661019895605e-34</v>
+        <v>1.651956335105361e-34</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.518459159146762</v>
       </c>
       <c r="C946" t="n">
-        <v>1.647557465870796e-34</v>
+        <v>1.647668960896928e-34</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.519444994200361</v>
       </c>
       <c r="C947" t="n">
-        <v>1.637071490319333e-34</v>
+        <v>1.636995735198252e-34</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.520430829253961</v>
       </c>
       <c r="C948" t="n">
-        <v>1.622491720989194e-34</v>
+        <v>1.622235136028216e-34</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.52141666430756</v>
       </c>
       <c r="C949" t="n">
-        <v>1.606106841071934e-34</v>
+        <v>1.60568569704005e-34</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.522402499361159</v>
       </c>
       <c r="C950" t="n">
-        <v>1.590205533759062e-34</v>
+        <v>1.589645951886939e-34</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.523388334414759</v>
       </c>
       <c r="C951" t="n">
-        <v>1.577076482242132e-34</v>
+        <v>1.576414434222113e-34</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.524374169468357</v>
       </c>
       <c r="C952" t="n">
-        <v>1.56900836971269e-34</v>
+        <v>1.568289677698792e-34</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.525360004521957</v>
       </c>
       <c r="C953" t="n">
-        <v>1.568289879362261e-34</v>
+        <v>1.567570215970176e-34</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.526345839575557</v>
       </c>
       <c r="C954" t="n">
-        <v>1.577207279426017e-34</v>
+        <v>1.576552153597563e-34</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.527331674629155</v>
       </c>
       <c r="C955" t="n">
-        <v>1.597298745305774e-34</v>
+        <v>1.596779123469926e-34</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.528317509682755</v>
       </c>
       <c r="C956" t="n">
-        <v>1.628299048848295e-34</v>
+        <v>1.627980798993642e-34</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.529303344736355</v>
       </c>
       <c r="C957" t="n">
-        <v>1.669676677521729e-34</v>
+        <v>1.669619010544438e-34</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.530289179789953</v>
       </c>
       <c r="C958" t="n">
-        <v>1.720900118794185e-34</v>
+        <v>1.721155588498005e-34</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.531275014843553</v>
       </c>
       <c r="C959" t="n">
-        <v>1.781437860133918e-34</v>
+        <v>1.782052363230178e-34</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.532260849897153</v>
       </c>
       <c r="C960" t="n">
-        <v>1.850758389009046e-34</v>
+        <v>1.851771165116656e-34</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.533246684950751</v>
       </c>
       <c r="C961" t="n">
-        <v>1.928330192887656e-34</v>
+        <v>1.929773824533107e-34</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.534232520004351</v>
       </c>
       <c r="C962" t="n">
-        <v>2.013621759238049e-34</v>
+        <v>2.015522171855414e-34</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.53521835505795</v>
       </c>
       <c r="C963" t="n">
-        <v>2.106016751141125e-34</v>
+        <v>2.108392319699798e-34</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.536204190111549</v>
       </c>
       <c r="C964" t="n">
-        <v>2.203863758832467e-34</v>
+        <v>2.206714406427823e-34</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.537190025165149</v>
       </c>
       <c r="C965" t="n">
-        <v>2.304819560643352e-34</v>
+        <v>2.308119472318984e-34</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.538175860218748</v>
       </c>
       <c r="C966" t="n">
-        <v>2.406528275731997e-34</v>
+        <v>2.410225765153032e-34</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.539161695272347</v>
       </c>
       <c r="C967" t="n">
-        <v>2.506634023256892e-34</v>
+        <v>2.510651532709995e-34</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.540147530325947</v>
       </c>
       <c r="C968" t="n">
-        <v>2.602780922376255e-34</v>
+        <v>2.607015022769625e-34</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.541133365379546</v>
       </c>
       <c r="C969" t="n">
-        <v>2.692613092248316e-34</v>
+        <v>2.696934483111686e-34</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.542119200433145</v>
       </c>
       <c r="C970" t="n">
-        <v>2.773774652031546e-34</v>
+        <v>2.778028161516187e-34</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.543105035486745</v>
       </c>
       <c r="C971" t="n">
-        <v>2.843909720884169e-34</v>
+        <v>2.847914305762887e-34</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.544090870540344</v>
       </c>
       <c r="C972" t="n">
-        <v>2.900722992362295e-34</v>
+        <v>2.904276341681561e-34</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.545076705593943</v>
       </c>
       <c r="C973" t="n">
-        <v>2.942781508750315e-34</v>
+        <v>2.945725582303609e-34</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.546062540647542</v>
       </c>
       <c r="C974" t="n">
-        <v>2.96929433092187e-34</v>
+        <v>2.971564152640148e-34</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.547048375701142</v>
       </c>
       <c r="C975" t="n">
-        <v>2.979485822126249e-34</v>
+        <v>2.981110643057952e-34</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.548034210754741</v>
       </c>
       <c r="C976" t="n">
-        <v>2.972580345612667e-34</v>
+        <v>2.97368364392372e-34</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.54902004580834</v>
       </c>
       <c r="C977" t="n">
-        <v>2.947802264630395e-34</v>
+        <v>2.948601745604207e-34</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.550005880861939</v>
       </c>
       <c r="C978" t="n">
-        <v>2.904376285217383e-34</v>
+        <v>2.905183846815643e-34</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.550991715915539</v>
       </c>
       <c r="C979" t="n">
-        <v>2.842083289566218e-34</v>
+        <v>2.84324914467744e-34</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.551977550969138</v>
       </c>
       <c r="C980" t="n">
-        <v>2.762391339511138e-34</v>
+        <v>2.764134508854954e-34</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.552963386022737</v>
       </c>
       <c r="C981" t="n">
-        <v>2.667087221801483e-34</v>
+        <v>2.669463512362353e-34</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.553949221076337</v>
       </c>
       <c r="C982" t="n">
-        <v>2.557957723224968e-34</v>
+        <v>2.560859728264999e-34</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.554935056129936</v>
       </c>
       <c r="C983" t="n">
-        <v>2.436893161997544e-34</v>
+        <v>2.440085015246139e-34</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.555920891183535</v>
       </c>
       <c r="C984" t="n">
-        <v>2.306189106154051e-34</v>
+        <v>2.309442519041426e-34</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.556906726237134</v>
       </c>
       <c r="C985" t="n">
-        <v>2.168240264568082e-34</v>
+        <v>2.171367806549486e-34</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.557892561290734</v>
       </c>
       <c r="C986" t="n">
-        <v>2.02544134611275e-34</v>
+        <v>2.028296444668463e-34</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.558878396344333</v>
       </c>
       <c r="C987" t="n">
-        <v>1.880187059661536e-34</v>
+        <v>1.88266400029687e-34</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.559864231397933</v>
       </c>
       <c r="C988" t="n">
-        <v>1.734872114087806e-34</v>
+        <v>1.736906040333102e-34</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.560850066451532</v>
       </c>
       <c r="C989" t="n">
-        <v>1.591891218265044e-34</v>
+        <v>1.593458131675679e-34</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.561835901505131</v>
       </c>
       <c r="C990" t="n">
-        <v>1.453639081066357e-34</v>
+        <v>1.454755841222735e-34</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.56282173655873</v>
       </c>
       <c r="C991" t="n">
-        <v>1.32251041136535e-34</v>
+        <v>1.323234735872908e-34</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.56380757161233</v>
       </c>
       <c r="C992" t="n">
-        <v>1.20058143810986e-34</v>
+        <v>1.201005786267134e-34</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.564793406665929</v>
       </c>
       <c r="C993" t="n">
-        <v>1.088094548920045e-34</v>
+        <v>1.088310903228019e-34</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.565779241719528</v>
       </c>
       <c r="C994" t="n">
-        <v>9.846370932644101e-35</v>
+        <v>9.847243795731348e-35</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.566765076773128</v>
       </c>
       <c r="C995" t="n">
-        <v>8.89795603098245e-35</v>
+        <v>8.898196749067009e-35</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.567750911826727</v>
       </c>
       <c r="C996" t="n">
-        <v>8.03156610377126e-35</v>
+        <v>8.031702488332202e-35</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.568736746880326</v>
       </c>
       <c r="C997" t="n">
-        <v>7.243066470565988e-35</v>
+        <v>7.243495609571648e-35</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.569722581933926</v>
       </c>
       <c r="C998" t="n">
-        <v>6.528322450919992e-35</v>
+        <v>6.529310708827979e-35</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.570708416987525</v>
       </c>
       <c r="C999" t="n">
-        <v>5.883199364388795e-35</v>
+        <v>5.88488238214599e-35</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.571694252041124</v>
       </c>
       <c r="C1000" t="n">
-        <v>5.303564899133986e-35</v>
+        <v>5.305948077709663e-35</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.572680087094724</v>
       </c>
       <c r="C1001" t="n">
-        <v>4.785516401013514e-35</v>
+        <v>4.788521784287537e-35</v>
       </c>
     </row>
     <row r="1002">
@@ -11386,7 +11386,7 @@
         <v>4.573665922148322</v>
       </c>
       <c r="C1002" t="n">
-        <v>4.325569492480642e-35</v>
+        <v>4.32912115525761e-35</v>
       </c>
     </row>
     <row r="1003">
@@ -11397,7 +11397,7 @@
         <v>4.574651757201922</v>
       </c>
       <c r="C1003" t="n">
-        <v>3.920284193957819e-35</v>
+        <v>3.924317305478224e-35</v>
       </c>
     </row>
     <row r="1004">
@@ -11408,7 +11408,7 @@
         <v>4.575637592255521</v>
       </c>
       <c r="C1004" t="n">
-        <v>3.566220525868753e-35</v>
+        <v>3.570681349808981e-35</v>
       </c>
     </row>
     <row r="1005">
@@ -11419,7 +11419,7 @@
         <v>4.57662342730912</v>
       </c>
       <c r="C1005" t="n">
-        <v>3.259938508636969e-35</v>
+        <v>3.2647844031093e-35</v>
       </c>
     </row>
     <row r="1006">
@@ -11430,7 +11430,7 @@
         <v>4.57760926236272</v>
       </c>
       <c r="C1006" t="n">
-        <v>2.997998162685188e-35</v>
+        <v>3.003197580237794e-35</v>
       </c>
     </row>
     <row r="1007">
@@ -11441,7 +11441,7 @@
         <v>4.578595097416319</v>
       </c>
       <c r="C1007" t="n">
-        <v>2.776959508436976e-35</v>
+        <v>2.782491996053927e-35</v>
       </c>
     </row>
     <row r="1008">
@@ -11452,7 +11452,7 @@
         <v>4.579580932469918</v>
       </c>
       <c r="C1008" t="n">
-        <v>2.593382566315754e-35</v>
+        <v>2.599238765417011e-35</v>
       </c>
     </row>
     <row r="1009">
@@ -11463,7 +11463,7 @@
         <v>4.580566767523518</v>
       </c>
       <c r="C1009" t="n">
-        <v>2.443777733392969e-35</v>
+        <v>2.449958106628463e-35</v>
       </c>
     </row>
     <row r="1010">
@@ -11474,7 +11474,7 @@
         <v>4.581552602577117</v>
       </c>
       <c r="C1010" t="n">
-        <v>2.323478804384385e-35</v>
+        <v>2.329963447082736e-35</v>
       </c>
     </row>
     <row r="1011">
@@ -11485,7 +11485,7 @@
         <v>4.582538437630716</v>
       </c>
       <c r="C1011" t="n">
-        <v>2.226623039816568e-35</v>
+        <v>2.233340980034905e-35</v>
       </c>
     </row>
     <row r="1012">
@@ -11496,7 +11496,7 @@
         <v>4.583524272684316</v>
       </c>
       <c r="C1012" t="n">
-        <v>2.147294090145132e-35</v>
+        <v>2.154121913174335e-35</v>
       </c>
     </row>
     <row r="1013">
@@ -11507,7 +11507,7 @@
         <v>4.584510107737914</v>
       </c>
       <c r="C1013" t="n">
-        <v>2.079575605826014e-35</v>
+        <v>2.086337454190713e-35</v>
       </c>
     </row>
     <row r="1014">
@@ -11518,7 +11518,7 @@
         <v>4.585495942791514</v>
       </c>
       <c r="C1014" t="n">
-        <v>2.017551237314879e-35</v>
+        <v>2.024018810773458e-35</v>
       </c>
     </row>
     <row r="1015">
@@ -11529,7 +11529,7 @@
         <v>4.586481777845114</v>
       </c>
       <c r="C1015" t="n">
-        <v>1.955304635067576e-35</v>
+        <v>1.961197190612171e-35</v>
       </c>
     </row>
     <row r="1016">
@@ -11540,7 +11540,7 @@
         <v>4.587467612898712</v>
       </c>
       <c r="C1016" t="n">
-        <v>1.886919449539952e-35</v>
+        <v>1.891903801396451e-35</v>
       </c>
     </row>
     <row r="1017">
@@ -11551,7 +11551,7 @@
         <v>4.588453447952312</v>
       </c>
       <c r="C1017" t="n">
-        <v>1.806479331187674e-35</v>
+        <v>1.810169850815716e-35</v>
       </c>
     </row>
     <row r="1018">
@@ -11562,7 +11562,7 @@
         <v>4.589439283005912</v>
       </c>
       <c r="C1018" t="n">
-        <v>1.711497175176558e-35</v>
+        <v>1.713555656168136e-35</v>
       </c>
     </row>
     <row r="1019">
@@ -11573,7 +11573,7 @@
         <v>4.59042511805951</v>
       </c>
       <c r="C1019" t="n">
-        <v>1.614297505434959e-35</v>
+        <v>1.614864501004046e-35</v>
       </c>
     </row>
     <row r="1020">
@@ -11584,7 +11584,7 @@
         <v>4.59141095311311</v>
       </c>
       <c r="C1020" t="n">
-        <v>1.531202907048566e-35</v>
+        <v>1.531014159742568e-35</v>
       </c>
     </row>
     <row r="1021">
@@ -11595,7 +11595,7 @@
         <v>4.59239678816671</v>
       </c>
       <c r="C1021" t="n">
-        <v>1.478240142008118e-35</v>
+        <v>1.478610646693687e-35</v>
       </c>
     </row>
     <row r="1022">
@@ -11606,7 +11606,7 @@
         <v>4.593382623220308</v>
       </c>
       <c r="C1022" t="n">
-        <v>1.452337438413369e-35</v>
+        <v>1.454132637294704e-35</v>
       </c>
     </row>
     <row r="1023">
@@ -11617,7 +11617,7 @@
         <v>4.594368458273908</v>
       </c>
       <c r="C1023" t="n">
-        <v>1.424667783008541e-35</v>
+        <v>1.426950389727229e-35</v>
       </c>
     </row>
     <row r="1024">
@@ -11628,7 +11628,7 @@
         <v>4.595354293327507</v>
       </c>
       <c r="C1024" t="n">
-        <v>1.393433507077843e-35</v>
+        <v>1.39513844605241e-35</v>
       </c>
     </row>
     <row r="1025">
@@ -11639,7 +11639,7 @@
         <v>4.596340128381106</v>
       </c>
       <c r="C1025" t="n">
-        <v>1.36855412539857e-35</v>
+        <v>1.369205964451005e-35</v>
       </c>
     </row>
     <row r="1026">
@@ -11650,7 +11650,7 @@
         <v>4.597325963434706</v>
       </c>
       <c r="C1026" t="n">
-        <v>1.359977484957134e-35</v>
+        <v>1.359692170068617e-35</v>
       </c>
     </row>
     <row r="1027">
@@ -11661,7 +11661,7 @@
         <v>4.598311798488306</v>
       </c>
       <c r="C1027" t="n">
-        <v>1.3771614811708e-35</v>
+        <v>1.37662645000391e-35</v>
       </c>
     </row>
     <row r="1028">
@@ -11672,7 +11672,7 @@
         <v>4.599297633541904</v>
       </c>
       <c r="C1028" t="n">
-        <v>1.418244311940382e-35</v>
+        <v>1.418259042482192e-35</v>
       </c>
     </row>
     <row r="1029">
@@ -11683,7 +11683,7 @@
         <v>4.600283468595504</v>
       </c>
       <c r="C1029" t="n">
-        <v>1.470016176913055e-35</v>
+        <v>1.471031587429207e-35</v>
       </c>
     </row>
     <row r="1030">
@@ -11694,7 +11694,7 @@
         <v>4.601269303649103</v>
       </c>
       <c r="C1030" t="n">
-        <v>1.518771664008189e-35</v>
+        <v>1.52086999682685e-35</v>
       </c>
     </row>
     <row r="1031">
@@ -11705,7 +11705,7 @@
         <v>4.602255138702702</v>
       </c>
       <c r="C1031" t="n">
-        <v>1.550805361145314e-35</v>
+        <v>1.553700182657184e-35</v>
       </c>
     </row>
     <row r="1032">
@@ -11716,7 +11716,7 @@
         <v>4.603240973756302</v>
       </c>
       <c r="C1032" t="n">
-        <v>1.552419179794631e-35</v>
+        <v>1.555455561813802e-35</v>
       </c>
     </row>
     <row r="1033">
@@ -11727,7 +11727,7 @@
         <v>4.604226808809901</v>
       </c>
       <c r="C1033" t="n">
-        <v>1.517526632182563e-35</v>
+        <v>1.51986964610243e-35</v>
       </c>
     </row>
     <row r="1034">
@@ -11738,7 +11738,7 @@
         <v>4.6052126438635</v>
       </c>
       <c r="C1034" t="n">
-        <v>1.462046761281917e-35</v>
+        <v>1.463226424411178e-35</v>
       </c>
     </row>
     <row r="1035">
@@ -11749,7 +11749,7 @@
         <v>4.6061984789171</v>
       </c>
       <c r="C1035" t="n">
-        <v>1.405852088799523e-35</v>
+        <v>1.405861268556154e-35</v>
       </c>
     </row>
     <row r="1036">
@@ -11760,7 +11760,7 @@
         <v>4.607184313970698</v>
       </c>
       <c r="C1036" t="n">
-        <v>1.367940701199621e-35</v>
+        <v>1.367216866606531e-35</v>
       </c>
     </row>
     <row r="1037">
@@ -11771,7 +11771,7 @@
         <v>4.608170149024298</v>
       </c>
       <c r="C1037" t="n">
-        <v>1.350904505062002e-35</v>
+        <v>1.349987347768809e-35</v>
       </c>
     </row>
     <row r="1038">
@@ -11782,7 +11782,7 @@
         <v>4.609155984077898</v>
       </c>
       <c r="C1038" t="n">
-        <v>1.342756908006461e-35</v>
+        <v>1.341984105007379e-35</v>
       </c>
     </row>
     <row r="1039">
@@ -11793,7 +11793,7 @@
         <v>4.610141819131496</v>
       </c>
       <c r="C1039" t="n">
-        <v>1.331004017845496e-35</v>
+        <v>1.330500644688813e-35</v>
       </c>
     </row>
     <row r="1040">
@@ -11804,7 +11804,7 @@
         <v>4.611127654185096</v>
       </c>
       <c r="C1040" t="n">
-        <v>1.305645695035924e-35</v>
+        <v>1.305365854764007e-35</v>
       </c>
     </row>
     <row r="1041">
@@ -11815,7 +11815,7 @@
         <v>4.612113489238695</v>
       </c>
       <c r="C1041" t="n">
-        <v>1.267238311446025e-35</v>
+        <v>1.267141357518294e-35</v>
       </c>
     </row>
     <row r="1042">
@@ -11826,7 +11826,7 @@
         <v>4.613099324292294</v>
       </c>
       <c r="C1042" t="n">
-        <v>1.21913111769671e-35</v>
+        <v>1.219228276328988e-35</v>
       </c>
     </row>
     <row r="1043">
@@ -11837,7 +11837,7 @@
         <v>4.614085159345894</v>
       </c>
       <c r="C1043" t="n">
-        <v>1.164673382186992e-35</v>
+        <v>1.165027752648276e-35</v>
       </c>
     </row>
     <row r="1044">
@@ -11848,7 +11848,7 @@
         <v>4.615070994399493</v>
       </c>
       <c r="C1044" t="n">
-        <v>1.107214373315906e-35</v>
+        <v>1.107940927928367e-35</v>
       </c>
     </row>
     <row r="1045">
@@ -11859,7 +11859,7 @@
         <v>4.616056829453092</v>
       </c>
       <c r="C1045" t="n">
-        <v>1.05010319284273e-35</v>
+        <v>1.051368765131146e-35</v>
       </c>
     </row>
     <row r="1046">
@@ -11870,7 +11870,7 @@
         <v>4.617042664506692</v>
       </c>
       <c r="C1046" t="n">
-        <v>9.960914493456917e-36</v>
+        <v>9.98072243332103e-36</v>
       </c>
     </row>
     <row r="1047">
@@ -11881,7 +11881,7 @@
         <v>4.618028499560291</v>
       </c>
       <c r="C1047" t="n">
-        <v>9.459907680623292e-36</v>
+        <v>9.487343964229763e-36</v>
       </c>
     </row>
     <row r="1048">
@@ -11892,7 +11892,7 @@
         <v>4.61901433461389</v>
       </c>
       <c r="C1048" t="n">
-        <v>9.002197287461632e-36</v>
+        <v>9.03617261396531e-36</v>
       </c>
     </row>
     <row r="1049">
@@ -11903,7 +11903,7 @@
         <v>4.62000016966749</v>
       </c>
       <c r="C1049" t="n">
-        <v>8.591969111508526e-36</v>
+        <v>8.629828752456682e-36</v>
       </c>
     </row>
     <row r="1050">
@@ -11914,7 +11914,7 @@
         <v>4.620986004721089</v>
       </c>
       <c r="C1050" t="n">
-        <v>8.233408950300388e-36</v>
+        <v>8.270932749632736e-36</v>
       </c>
     </row>
     <row r="1051">
@@ -11925,7 +11925,7 @@
         <v>4.621971839774688</v>
       </c>
       <c r="C1051" t="n">
-        <v>7.930702601372687e-36</v>
+        <v>7.962104975421364e-36</v>
       </c>
     </row>
     <row r="1052">
@@ -11936,7 +11936,7 @@
         <v>4.622957674828287</v>
       </c>
       <c r="C1052" t="n">
-        <v>7.688035595320162e-36</v>
+        <v>7.705965630826714e-36</v>
       </c>
     </row>
     <row r="1053">
@@ -11947,7 +11947,7 @@
         <v>4.623943509881887</v>
       </c>
       <c r="C1053" t="n">
-        <v>7.497146773661403e-36</v>
+        <v>7.497257077863935e-36</v>
       </c>
     </row>
     <row r="1054">
@@ -11958,7 +11958,7 @@
         <v>4.624929344935486</v>
       </c>
       <c r="C1054" t="n">
-        <v>7.320970088751568e-36</v>
+        <v>7.311965729557223e-36</v>
       </c>
     </row>
     <row r="1055">
@@ -11969,7 +11969,7 @@
         <v>4.625915179989086</v>
       </c>
       <c r="C1055" t="n">
-        <v>7.15463757269129e-36</v>
+        <v>7.145132039886717e-36</v>
       </c>
     </row>
     <row r="1056">
@@ -11980,7 +11980,7 @@
         <v>4.626901015042685</v>
       </c>
       <c r="C1056" t="n">
-        <v>6.999859368536691e-36</v>
+        <v>6.995755739419827e-36</v>
       </c>
     </row>
     <row r="1057">
@@ -11991,7 +11991,7 @@
         <v>4.627886850096284</v>
       </c>
       <c r="C1057" t="n">
-        <v>6.858345619343483e-36</v>
+        <v>6.862836558723585e-36</v>
       </c>
     </row>
     <row r="1058">
@@ -12002,7 +12002,7 @@
         <v>4.628872685149883</v>
       </c>
       <c r="C1058" t="n">
-        <v>6.731806468167915e-36</v>
+        <v>6.745374228365526e-36</v>
       </c>
     </row>
     <row r="1059">
@@ -12013,7 +12013,7 @@
         <v>4.629858520203483</v>
       </c>
       <c r="C1059" t="n">
-        <v>6.621417538325615e-36</v>
+        <v>6.642246414129466e-36</v>
       </c>
     </row>
     <row r="1060">
@@ -12024,7 +12024,7 @@
         <v>4.630844355257082</v>
       </c>
       <c r="C1060" t="n">
-        <v>6.525820185241264e-36</v>
+        <v>6.551752047586989e-36</v>
       </c>
     </row>
     <row r="1061">
@@ -12035,7 +12035,7 @@
         <v>4.631830190310681</v>
       </c>
       <c r="C1061" t="n">
-        <v>6.442905456242045e-36</v>
+        <v>6.472018717348064e-36</v>
       </c>
     </row>
     <row r="1062">
@@ -12046,7 +12046,7 @@
         <v>4.63281602536428</v>
       </c>
       <c r="C1062" t="n">
-        <v>6.370564283475302e-36</v>
+        <v>6.401173985719616e-36</v>
       </c>
     </row>
     <row r="1063">
@@ -12057,7 +12057,7 @@
         <v>4.63380186041788</v>
       </c>
       <c r="C1063" t="n">
-        <v>6.306687599088615e-36</v>
+        <v>6.3373454150088e-36</v>
       </c>
     </row>
     <row r="1064">
@@ -12068,7 +12068,7 @@
         <v>4.634787695471479</v>
       </c>
       <c r="C1064" t="n">
-        <v>6.249166335229529e-36</v>
+        <v>6.278660567522744e-36</v>
       </c>
     </row>
     <row r="1065">
@@ -12079,7 +12079,7 @@
         <v>4.635773530525078</v>
       </c>
       <c r="C1065" t="n">
-        <v>6.19589142404544e-36</v>
+        <v>6.223247005568415e-36</v>
       </c>
     </row>
     <row r="1066">
@@ -12090,7 +12090,7 @@
         <v>4.636759365578678</v>
       </c>
       <c r="C1066" t="n">
-        <v>6.144753797683898e-36</v>
+        <v>6.169232291452946e-36</v>
       </c>
     </row>
     <row r="1067">
@@ -12101,7 +12101,7 @@
         <v>4.637745200632277</v>
       </c>
       <c r="C1067" t="n">
-        <v>6.093644388292447e-36</v>
+        <v>6.114743987483461e-36</v>
       </c>
     </row>
     <row r="1068">
@@ -12112,7 +12112,7 @@
         <v>4.638731035685876</v>
       </c>
       <c r="C1068" t="n">
-        <v>6.040454128018493e-36</v>
+        <v>6.057909655966938e-36</v>
       </c>
     </row>
     <row r="1069">
@@ -12123,7 +12123,7 @@
         <v>4.639716870739475</v>
       </c>
       <c r="C1069" t="n">
-        <v>5.983073949009632e-36</v>
+        <v>5.996856859210561e-36</v>
       </c>
     </row>
     <row r="1070">
@@ -12134,7 +12134,7 @@
         <v>4.640702705793075</v>
       </c>
       <c r="C1070" t="n">
-        <v>5.919399152356178e-36</v>
+        <v>5.929717148327794e-36</v>
       </c>
     </row>
     <row r="1071">
@@ -12145,7 +12145,7 @@
         <v>4.641688540846674</v>
       </c>
       <c r="C1071" t="n">
-        <v>5.84816458185102e-36</v>
+        <v>5.855388569543851e-36</v>
       </c>
     </row>
     <row r="1072">
@@ -12156,7 +12156,7 @@
         <v>4.642674375900273</v>
       </c>
       <c r="C1072" t="n">
-        <v>5.769937337483831e-36</v>
+        <v>5.774442002894469e-36</v>
       </c>
     </row>
     <row r="1073">
@@ -12167,7 +12167,7 @@
         <v>4.643660210953873</v>
       </c>
       <c r="C1073" t="n">
-        <v>5.685526221970492e-36</v>
+        <v>5.687669000880932e-36</v>
       </c>
     </row>
     <row r="1074">
@@ -12178,7 +12178,7 @@
         <v>4.644646046007472</v>
       </c>
       <c r="C1074" t="n">
-        <v>5.595740038027093e-36</v>
+        <v>5.59586111600474e-36</v>
       </c>
     </row>
     <row r="1075">
@@ -12189,7 +12189,7 @@
         <v>4.645631881061071</v>
       </c>
       <c r="C1075" t="n">
-        <v>5.501387588369754e-36</v>
+        <v>5.499809900767417e-36</v>
       </c>
     </row>
     <row r="1076">
@@ -12200,7 +12200,7 @@
         <v>4.646617716114671</v>
       </c>
       <c r="C1076" t="n">
-        <v>5.403277675714322e-36</v>
+        <v>5.400306907670216e-36</v>
       </c>
     </row>
     <row r="1077">
@@ -12211,7 +12211,7 @@
         <v>4.64760355116827</v>
       </c>
       <c r="C1077" t="n">
-        <v>5.302219102776909e-36</v>
+        <v>5.298143689214656e-36</v>
       </c>
     </row>
     <row r="1078">
@@ -12222,7 +12222,7 @@
         <v>4.648589386221869</v>
       </c>
       <c r="C1078" t="n">
-        <v>5.199020672273633e-36</v>
+        <v>5.194111797902261e-36</v>
       </c>
     </row>
     <row r="1079">
@@ -12233,7 +12233,7 @@
         <v>4.649575221275469</v>
       </c>
       <c r="C1079" t="n">
-        <v>5.094491186920332e-36</v>
+        <v>5.089002786234275e-36</v>
       </c>
     </row>
     <row r="1080">
@@ -12244,7 +12244,7 @@
         <v>4.650561056329067</v>
       </c>
       <c r="C1080" t="n">
-        <v>4.989439449433221e-36</v>
+        <v>4.983608206712319e-36</v>
       </c>
     </row>
     <row r="1081">
@@ -12255,7 +12255,7 @@
         <v>4.651546891382667</v>
       </c>
       <c r="C1081" t="n">
-        <v>4.884674262528132e-36</v>
+        <v>4.878719611837632e-36</v>
       </c>
     </row>
     <row r="1082">
@@ -12266,7 +12266,7 @@
         <v>4.652532726436267</v>
       </c>
       <c r="C1082" t="n">
-        <v>4.781004428921188e-36</v>
+        <v>4.775128554111742e-36</v>
       </c>
     </row>
     <row r="1083">
@@ -12277,7 +12277,7 @@
         <v>4.653518561489865</v>
       </c>
       <c r="C1083" t="n">
-        <v>4.679238751328501e-36</v>
+        <v>4.673626586036169e-36</v>
       </c>
     </row>
     <row r="1084">
@@ -12288,7 +12288,7 @@
         <v>4.654504396543465</v>
       </c>
       <c r="C1084" t="n">
-        <v>4.580186032465913e-36</v>
+        <v>4.575005260112161e-36</v>
       </c>
     </row>
     <row r="1085">
@@ -12299,7 +12299,7 @@
         <v>4.655490231597065</v>
       </c>
       <c r="C1085" t="n">
-        <v>4.484655075049545e-36</v>
+        <v>4.480056128841241e-36</v>
       </c>
     </row>
     <row r="1086">
@@ -12310,7 +12310,7 @@
         <v>4.656476066650663</v>
       </c>
       <c r="C1086" t="n">
-        <v>4.393454681795499e-36</v>
+        <v>4.389570744724922e-36</v>
       </c>
     </row>
     <row r="1087">
@@ -12321,7 +12321,7 @@
         <v>4.657461901704263</v>
       </c>
       <c r="C1087" t="n">
-        <v>4.307393655419637e-36</v>
+        <v>4.304340660264472e-36</v>
       </c>
     </row>
     <row r="1088">
@@ -12332,7 +12332,7 @@
         <v>4.658447736757863</v>
       </c>
       <c r="C1088" t="n">
-        <v>4.227280798638067e-36</v>
+        <v>4.225157427961403e-36</v>
       </c>
     </row>
     <row r="1089">
@@ -12343,7 +12343,7 @@
         <v>4.659433571811461</v>
       </c>
       <c r="C1089" t="n">
-        <v>4.153802654414461e-36</v>
+        <v>4.152686589892892e-36</v>
       </c>
     </row>
     <row r="1090">
@@ -12354,7 +12354,7 @@
         <v>4.660419406865061</v>
       </c>
       <c r="C1090" t="n">
-        <v>4.087081852528969e-36</v>
+        <v>4.087012475282921e-36</v>
       </c>
     </row>
     <row r="1091">
@@ -12365,7 +12365,7 @@
         <v>4.66140524191866</v>
       </c>
       <c r="C1091" t="n">
-        <v>4.027078545845996e-36</v>
+        <v>4.028051951989882e-36</v>
       </c>
     </row>
     <row r="1092">
@@ -12376,7 +12376,7 @@
         <v>4.662391076972259</v>
       </c>
       <c r="C1092" t="n">
-        <v>3.973752872143246e-36</v>
+        <v>3.97572187232265e-36</v>
       </c>
     </row>
     <row r="1093">
@@ -12387,7 +12387,7 @@
         <v>4.663376912025859</v>
       </c>
       <c r="C1093" t="n">
-        <v>3.927064969198591e-36</v>
+        <v>3.929939088590265e-36</v>
       </c>
     </row>
     <row r="1094">
@@ -12398,7 +12398,7 @@
         <v>4.664362747079458</v>
       </c>
       <c r="C1094" t="n">
-        <v>3.886974974789844e-36</v>
+        <v>3.890620453101706e-36</v>
       </c>
     </row>
     <row r="1095">
@@ -12409,7 +12409,7 @@
         <v>4.665348582133057</v>
       </c>
       <c r="C1095" t="n">
-        <v>3.853443026694844e-36</v>
+        <v>3.857682818165984e-36</v>
       </c>
     </row>
     <row r="1096">
@@ -12420,7 +12420,7 @@
         <v>4.666334417186657</v>
       </c>
       <c r="C1096" t="n">
-        <v>3.826429262691346e-36</v>
+        <v>3.83104303609202e-36</v>
       </c>
     </row>
     <row r="1097">
@@ -12431,7 +12431,7 @@
         <v>4.667320252240255</v>
       </c>
       <c r="C1097" t="n">
-        <v>3.80589382055721e-36</v>
+        <v>3.810617959188844e-36</v>
       </c>
     </row>
     <row r="1098">
@@ -12442,7 +12442,7 @@
         <v>4.668306087293855</v>
       </c>
       <c r="C1098" t="n">
-        <v>3.791796838070212e-36</v>
+        <v>3.7963244397654e-36</v>
       </c>
     </row>
     <row r="1099">
@@ -12453,7 +12453,7 @@
         <v>4.669291922347455</v>
       </c>
       <c r="C1099" t="n">
-        <v>3.78409845300819e-36</v>
+        <v>3.788079330130692e-36</v>
       </c>
     </row>
     <row r="1100">
@@ -12464,7 +12464,7 @@
         <v>4.670277757401053</v>
       </c>
       <c r="C1100" t="n">
-        <v>3.782758803148953e-36</v>
+        <v>3.785799482593701e-36</v>
       </c>
     </row>
     <row r="1101">
@@ -12475,7 +12475,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1101" t="n">
-        <v>3.787738026270312e-36</v>
+        <v>3.789401749463404e-36</v>
       </c>
     </row>
   </sheetData>
